--- a/image_preprocessing/two_vertex/accuracy_degradation/virtual/virtual_bert24.xlsx
+++ b/image_preprocessing/two_vertex/accuracy_degradation/virtual/virtual_bert24.xlsx
@@ -8,9 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Arrival Information" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Planner Configuration" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Planner Config Run Results" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Planner Config Run Results(Raw)" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,339 +475,11 @@
         <v>2000</v>
       </c>
       <c r="E2" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SimulatedAnnealing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>mu (qps)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cv</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t># requests</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Latency Constraint (ms)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Planner</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>configuration</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Estimated Latency (ms)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Cost</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>150</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>200</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>SimulatedAnnealing</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>{"bert/VClassifier": {"config": {"INPUT_INFO": {"&lt;class 'list'&gt;": ["data"]}, "OUTPUT_INFO": "&lt;class 'list'&gt;", "input_shape": null, "output_shape": null}, "ppu_state": {"Sentimental-bert24-2/tokenizer": {"num_replicas": 1, "max_batch_size": 1, "resources": {"CPU1": 1}}, "Sentimental-bert24-2/bert24_p2_stage0": {"num_replicas": 15, "max_batch_size": 1, "resources": {"Tesla P40": 1}, "num_gpus": 1}}, "ppu_identifier": "Sentimental-bert24-2"}}</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>293.8019682566281</v>
-      </c>
-      <c r="I2" t="n">
-        <v>151</v>
-      </c>
-      <c r="J2" t="n">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>mu (qps)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cv</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t># requests</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Latency Constraint (ms)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Planner</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Estimated Latency (ms)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cost</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Ingest mu Observed (qps)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Throughput (qps)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>p95 (ms)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>p99 (ms)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>150</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>200</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>SimulatedAnnealing</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>293.8019682566281</v>
-      </c>
-      <c r="H2" t="n">
-        <v>151</v>
-      </c>
-      <c r="I2" t="n">
-        <v>93</v>
-      </c>
-      <c r="J2" t="n">
-        <v>163.3016889515712</v>
-      </c>
-      <c r="K2" t="n">
-        <v>129.4011081904903</v>
-      </c>
-      <c r="L2" t="n">
-        <v>26.85464164242147</v>
-      </c>
-      <c r="M2" t="n">
-        <v>84.65662648901339</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>mu (qps)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cv</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t># requests</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Latency Constraint (ms)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Planner</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Estimated Latency (ms)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cost</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Latency (ms)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>150</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>200</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>SimulatedAnnealing</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>293.8019682566281</v>
-      </c>
-      <c r="H2" t="n">
-        <v>151</v>
-      </c>
-      <c r="I2" t="n">
-        <v>93</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[69.7749275714159, 28.496170416474342, 28.675091452896595, 35.2364769205451, 33.75903330743313, 35.44790390878916, 38.21743745356798, 40.79973790794611, 44.55167893320322, 45.15826888382435, 48.40177949517965, 49.948432482779026, 47.05445654690266, 44.44777965545654, 44.27772294729948, 40.55858217179775, 42.28881001472473, 37.36358601599932, 34.21911783516407, 32.590110786259174, 29.916321858763695, 26.97442937642336, 26.572659611701965, 19.997339695692062, 19.22703441232443, 19.06791515648365, 19.1974313929677, 17.845116555690765, 19.794597290456295, 18.24030838906765, 19.143937155604362, 17.54830591380596, 18.07165890932083, 17.70037692040205, 19.41175851970911, 18.500126898288727, 17.65548810362816, 19.90633923560381, 18.42192281037569, 17.348064109683037, 19.71595361828804, 17.290680669248104, 17.377429641783237, 17.49415509402752, 17.283686436712742, 19.02369223535061, 19.204167649149895, 17.2845758497715, 17.720021307468414, 18.229405395686626, 19.347792491316795, 17.561033368110657, 17.223985865712166, 18.326936289668083, 17.280105501413345, 19.494108855724335, 17.496327869594097, 19.456964917480946, 19.61667649447918, 18.8111774623394, 18.14065035432577, 17.897644080221653, 19.716328009963036, 19.249661825597286, 20.040991716086864, 18.562760204076767, 19.631402567029, 19.740646705031395, 24.937059730291367, 20.384727977216244, 19.483777694404125, 17.956633120775223, 17.81847607344389, 17.79198180884123, 19.634218886494637, 19.665670581161976, 17.508097924292088, 19.704723730683327, 18.46100762486458, 18.917863257229328, 19.833384081721306, 18.93139909952879, 17.475370317697525, 19.74348071962595, 19.545452669262886, 19.707513973116875, 17.38331187516451, 17.61125773191452, 18.161202780902386, 19.77019850164652, 19.4947412237525, 17.408384010195732, 19.646075554192066, 17.357480712234974, 17.37581565976143, 17.684184946119785, 21.5567322447896, 19.628743641078472, 19.484746269881725, 18.381533212959766, 19.789681769907475, 19.58785392343998, 19.376124255359173, 17.4954105168581, 19.64699011296034, 20.024314522743225, 20.38720343261957, 19.51015368103981, 20.083215087652206, 19.145931117236614, 19.714881666004658, 21.226865239441395, 22.497291676700115, 22.10285607725382, 22.92266394942999, 20.43350227177143, 19.76986974477768, 20.258158445358276, 19.722488708794117, 19.763885997235775, 19.461660645902157, 19.52390931546688, 17.592908814549446, 17.38477312028408, 17.555207945406437, 17.38201268017292, 17.78348907828331, 17.2915393486619, 19.651870243251324, 17.679340206086636, 19.71099991351366, 19.887824542820454, 18.582669086754322, 19.938208162784576, 19.767520017921925, 22.10779022425413, 19.828015007078648, 20.025872625410557, 17.70393457263708, 17.464173026382923, 17.838502302765846, 19.681541249156, 19.94176022708416, 19.007623195648193, 19.858348183333874, 19.79510672390461, 23.672394454479218, 21.00325934588909, 22.476467303931713, 18.238987773656845, 20.023535005748272, 20.38135565817356, 20.587864331901073, 27.427918277680874, 19.283180125057697, 19.813445396721363, 19.87466774880886, 19.760512746870518, 19.902381114661694, 19.853043369948864, 19.864008761942387, 19.64890118688345, 17.668900080025196, 19.89174447953701, 19.718719646334648, 17.51747541129589, 17.437828704714775, 17.406869679689407, 19.85257863998413, 17.079218290746212, 21.1036317050457, 19.484427757561207, 20.104351453483105, 17.535691149532795, 17.56240613758564, 19.705154933035374, 17.434625886380672, 17.568250186741352, 17.31393113732338, 19.724853336811066, 19.738617353141308, 19.726420752704144, 21.19682263582945, 19.843047484755516, 19.597381353378296, 19.894011318683624, 19.84623447060585, 18.0929247289896, 17.169302329421043, 19.64850351214409, 19.322866573929787, 17.46212597936392, 17.220914363861084, 17.696783877909184, 17.369559966027737, 17.3878762871027, 19.619553349912167, 19.38951574265957, 19.62310541421175, 18.341263756155968, 19.650028087198734, 18.255118280649185, 17.904574051499367, 17.6191795617342, 19.410602748394012, 18.793072551488876, 19.343881867825985, 19.723335281014442, 18.393072299659252, 17.569459043443203, 17.70242489874363, 19.321557134389877, 20.054910331964493, 19.961352460086346, 19.770583137869835, 19.170992076396942, 19.38017550855875, 20.196732133626938, 19.531416706740856, 19.977166317403316, 19.45432461798191, 19.7437833994627, 18.203264102339745, 17.98136904835701, 18.15024856477976, 18.12560483813286, 19.65829450637102, 18.923504278063774, 19.43589374423027, 19.638201221823692, 19.98818200081587, 19.801798276603222, 19.5531127974391, 19.568176940083504, 17.846704460680485, 18.55108980089426, 19.588781520724297, 18.96348688751459, 18.81527155637741, 19.94276326149702, 20.08162811398506, 18.44754908233881, 19.81488522142172, 19.96586751192808, 19.183266907930374, 17.51045510172844, 17.271781340241432, 19.842208363115788, 19.186807796359062, 21.012543700635433, 19.525413401424885, 26.742939837276936, 22.631892003118992, 19.814718514680862, 21.7732023447752, 18.951707519590855, 20.82383632659912, 19.80372704565525, 20.578830502927303, 23.662924766540527, 21.291851066052914, 20.074770785868168, 19.460937939584255, 18.919717520475388, 19.846048206090927, 19.683904014527798, 19.70837637782097, 21.055370569229126, 20.710935816168785, 19.73625086247921, 20.425226539373398, 19.320888444781303, 19.8229206725955, 19.182604737579823, 16.89890678972006, 22.997617721557617, 23.125668056309223, 26.037773117423058, 20.60013636946678, 20.358333364129066, 20.124096423387527, 17.853560857474804, 19.882168620824814, 19.850168377161026, 18.98344326764345, 19.61216889321804, 19.676449708640575, 19.544980488717556, 19.579842686653137, 18.19729246199131, 18.018627539277077, 19.82875820249319, 19.84389405697584, 18.65395251661539, 19.543827511370182, 19.778478890657425, 19.762646406888962, 19.690980203449726, 19.779407419264317, 17.751188948750496, 19.962936639785767, 17.87839364260435, 17.60775875300169, 20.375528372824192, 18.85996200144291, 20.67551575601101, 19.207872450351715, 19.73416656255722, 18.272675573825836, 19.67325434088707, 19.875713624060154, 19.33296024799347, 20.328707061707973, 18.318512476980686, 18.487051129341125, 19.152500666677952, 19.196249544620514, 18.869617953896523, 19.686440005898476, 17.795825377106667, 17.860922031104565, 18.147287890315056, 18.25733855366707, 19.396924413740635, 18.095294944941998, 19.604982808232307, 17.384950071573257, 21.292073652148247, 19.336216151714325, 19.962110556662083, 17.874129116535187, 19.75188311189413, 18.331662751734257, 19.224769435822964, 17.982899211347103, 18.06668657809496, 19.70425434410572, 18.99052318185568, 18.548830412328243, 19.928147085011005, 19.71824374049902, 17.630571499466896, 17.059965059161186, 17.62436982244253, 17.464318312704563, 18.503032624721527, 18.12649331986904, 19.39589623361826, 19.161510281264782, 18.386303447186947, 20.67913580685854, 25.235183537006378, 20.49480751156807, 20.301498472690582, 19.785068929195404, 19.830980338156223, 17.912430688738823, 18.233121372759342, 19.77855246514082, 18.910900689661503, 18.22400838136673, 19.946509040892124, 19.751597195863724, 19.611828960478306, 19.610188901424408, 18.389533273875713, 19.770225510001183, 20.127687603235245, 19.050694070756435, 19.77611891925335, 19.164549186825752, 18.92647333443165, 17.300277017056942, 17.2526054084301, 19.78383958339691, 19.887357018887997, 17.783443443477154, 17.38753728568554, 17.582292668521404, 17.923654057085514, 17.180309630930424, 19.90338321775198, 18.71440000832081, 18.25846079736948, 17.373256385326385, 19.673500210046768, 17.080675810575485, 18.67667119950056, 17.281590960919857, 19.817759282886982, 19.092383794486523, 19.417150877416134, 21.255064755678177, 19.949929788708687, 19.649295136332512, 19.59299575537443, 19.63934861123562, 17.986031249165535, 17.728153616189957, 17.908595502376556, 18.75983364880085, 19.36192996799946, 18.830761313438416, 18.36175285279751, 17.373052425682545, 18.349457532167435, 17.93229766190052, 20.0774148106575, 18.02691165357828, 17.870907671749592, 19.445468671619892, 19.55049205571413, 18.55629589408636, 19.74613592028618, 18.8748175278306, 19.77080013602972, 17.90149137377739, 17.105383798480034, 19.98672727495432, 17.886066809296608, 17.81480945646763, 19.599230960011482, 18.891891464591026, 19.095770083367825, 23.763160221278667, 19.88712791353464, 17.898657359182835, 18.15047487616539, 19.451851025223732, 19.956300035119057, 22.322621196508408, 20.429441705346107, 22.627754136919975, 25.77849291265011, 19.93055734783411, 17.51073356717825, 17.345854081213474, 19.484318792819977, 19.586644135415554, 26.19850542396307, 26.448767632246017, 25.89260134845972, 20.564540289342403, 19.954316318035126, 19.259301014244556, 19.800531677901745, 19.709981977939606, 17.76697300374508, 17.790338955819607, 18.221912905573845, 19.416055642068386, 18.020466901361942, 18.00122018903494, 19.530843943357468, 19.29677464067936, 18.56906618922949, 19.561296328902245, 22.01809175312519, 19.891724921762943, 19.91219073534012, 23.932860232889652, 23.851213976740837, 19.825901836156845, 19.951182417571545, 19.944999366998672, 17.78968144208193, 19.7089621797204, 19.130786880850792, 19.335787743330002, 19.644202664494514, 17.516923137009144, 20.09466104209423, 17.48858392238617, 19.658918492496014, 19.121473655104637, 20.151386968791485, 19.816515035927296, 19.8878338560462, 19.05051525682211, 19.788621924817562, 19.760715775191784, 17.840015701949596, 19.611465744674206, 19.706190563738346, 19.369631074368954, 19.603083841502666, 17.91293825954199, 17.66277477145195, 19.785412587225437, 18.926161341369152, 19.56751011312008, 19.746766425669193, 19.708293490111828, 19.691485911607742, 19.62737739086151, 17.559830099344254, 17.427168786525726, 19.695473834872246, 19.245031289756298, 17.181147821247578, 17.67229475080967, 19.749688915908337, 17.6693145185709, 17.168601974844933, 19.69036739319563, 19.334553740918636, 17.463769763708115, 17.257507890462875, 17.706015147268772, 19.655482843518257, 19.82740219682455, 19.101367332041264, 17.471564933657646, 19.776123575866222, 19.672431983053684, 17.398642376065254, 19.848397932946682, 19.701245240867138, 17.701941542327404, 17.45838113129139, 20.325100049376488, 19.75906826555729, 19.510687328875065, 19.24140192568302, 18.34198273718357, 17.649244517087936, 18.220385536551476, 19.20090988278389, 17.919697798788548, 19.005433656275272, 19.642620347440243, 17.36545469611883, 17.845282331109047, 19.676661118865013, 19.0769350156188, 19.469505175948143, 19.45852767676115, 19.880221225321293, 18.193989992141724, 17.571239732205868, 22.99925871193409, 26.029051281511784, 21.03439439088106, 20.36049123853445, 20.418554544448853, 19.279860891401768, 19.994068890810013, 19.70132440328598, 19.65013798326254, 18.158020451664925, 19.997582770884037, 19.88448854535818, 18.793628551065922, 19.572320394217968, 19.704606384038925, 17.680631019175053, 19.740553572773933, 18.21135450154543, 17.499322071671486, 19.514083862304688, 18.015881069004536, 17.425337806344032, 19.820746034383774, 19.459212198853493, 19.621740095317364, 19.734852947294712, 19.770679995417595, 19.753988832235336, 20.37285640835762, 17.945706844329834, 19.8099622502923, 19.786556251347065, 18.840392120182514, 20.016551949083805, 18.275354988873005, 17.793252132833004, 19.75408848375082, 19.535282626748085, 18.063305877149105, 17.545013688504696, 19.80692148208618, 17.006578855216503, 17.508387565612793, 17.821067944169044, 17.61592924594879, 17.533347941935062, 24.069134145975113, 25.84273461252451, 20.21229825913906, 19.636265002191067, 19.25439201295376, 20.001979544758797, 17.67602190375328, 20.11726424098015, 20.751606673002243, 19.36545316129923, 19.871622323989868, 17.055805772542953, 19.840029068291187, 18.00743956118822, 24.832967668771744, 21.420794539153576, 27.584435418248177, 22.909377701580524, 24.483310990035534, 24.55936837941408, 20.33155970275402, 20.705072209239006, 18.592230044305325, 19.834923557937145, 19.774640910327435, 18.70038080960512, 19.27226409316063, 19.68069840222597, 25.791607797145844, 25.754312053322792, 26.084545999765396, 20.5637589097023, 20.31772769987583, 20.24528943002224, 19.966956228017807, 17.314016819000244, 18.190699629485607, 17.564386129379272, 19.933613948524, 19.27805505692959, 17.332819290459156, 17.79146585613489, 17.812609672546387, 20.575945265591145, 19.254950806498528, 18.289050087332726, 18.89798417687416, 19.78084910660982, 18.46123393625021, 17.877373844385147, 17.309613525867462, 17.34994165599346, 17.02640950679779, 17.71452557295561, 18.611107021570206, 18.036681227385998, 20.06283588707447, 18.529540859162807, 19.46067623794079, 19.44731082767248, 19.901609979569912, 17.800685949623585, 17.864389345049858, 17.79877208173275, 17.53031089901924, 17.445281147956848, 20.04147320985794, 19.25107929855585, 19.08550038933754, 20.273637026548386, 20.55054996162653, 19.847949035465717, 19.854824990034103, 19.727458246052265, 20.075817592442036, 19.93321254849434, 18.765772692859173, 18.89967266470194, 19.63030267506838, 18.789022229611874, 18.564045429229736, 20.144416019320488, 19.52562015503645, 17.699782736599445, 19.835039041936398, 17.77902990579605, 19.356362521648407, 18.647692166268826, 17.68601406365633, 19.81320232152939, 18.563630990684032, 18.8099667429924, 20.064907148480415, 19.845441915094852, 17.679977230727673, 17.48260110616684, 17.754786647856236, 17.34470296651125, 17.339786514639854, 18.206441774964333, 19.438529387116432, 19.496040418744087, 18.74502655118704, 19.88294441252947, 19.833807833492756, 18.312611617147923, 17.913077026605606, 17.854214645922184, 17.807363532483578, 20.769892260432243, 17.93774962425232, 18.90581287443638, 19.91413626819849, 18.427899107336998, 19.631512463092804, 20.175546407699585, 19.757192581892014, 18.556132912635803, 17.45384093374014, 17.869609408080578, 17.91874784976244, 18.07265169918537, 25.463362224400043, 21.59221936017275, 21.28957398235798, 21.508675068616867, 19.759670831263065, 17.7393676713109, 19.833700731396675, 20.21967526525259, 17.60728470981121, 26.348399929702282, 20.562538877129555, 25.103754363954067, 21.764599718153477, 21.349621936678886, 27.35310886055231, 21.623194217681885, 22.749612107872963, 21.245558746159077, 22.97221217304468, 21.59685082733631, 20.41963580995798, 20.208822563290596, 19.051261246204376, 18.979485146701336, 19.233372062444687, 19.32701375335455, 17.54134800285101, 19.84209194779396, 19.69808805733919, 19.874077290296555, 19.87180020660162, 17.651972360908985, 18.619888462126255, 19.799530506134033, 19.03163641691208, 18.6126921325922, 19.7974918410182, 19.606451503932476, 17.59319007396698, 17.66134798526764, 17.535073682665825, 23.39971251785755, 20.524732768535614, 20.201698876917362, 19.363166764378548, 18.774444237351418, 19.200499169528484, 19.622450694441795, 19.512737169861794, 20.164686255156994, 19.769426435232162, 19.61730420589447, 18.593712709844112, 17.34019350260496, 18.379765562713146, 18.88724695891142, 21.30724396556616, 23.39014131575823, 25.85212979465723, 23.720710538327694, 26.05103887617588, 22.35632948577404, 19.50864400714636, 19.9974263086915, 18.487819470465183, 20.289051346480846, 19.519726745784283, 18.916537053883076, 19.24836542457342, 19.23658512532711, 18.2967409491539, 17.44610909372568, 18.408846110105515, 19.578799605369568, 20.237808115780354, 18.08113232254982, 18.33120360970497, 19.739890471100807, 18.780830316245556, 18.856092356145382, 18.401214852929115, 18.457692116498947, 19.700800999999046, 17.397097311913967, 19.25627700984478, 18.570556305348873, 17.610399052500725, 20.322258584201336, 18.765294924378395, 19.24986205995083, 18.86457484215498, 19.854235462844372, 19.681411795318127, 19.914599135518074, 19.809802994132042, 19.6652477607131, 18.625806085765362, 20.063591189682484, 19.74253822118044, 24.77697841823101, 19.67688836157322, 19.739484414458275, 20.04426345229149, 19.465983845293522, 19.700966775417328, 17.69035030156374, 17.51780416816473, 19.738870672881603, 19.7224672883749, 19.32499371469021, 19.825397990643978, 19.21870931982994, 19.655033014714718, 18.02748627960682, 17.67216995358467, 19.807882606983185, 17.63463020324707, 17.790718004107475, 17.834080383181572, 16.93603675812483, 19.89614497870207, 19.124181009829044, 19.30340100079775, 19.4825641810894, 19.707747735083103, 19.716707058250904, 17.473050393164158, 20.367203280329704, 19.757753238081932, 18.164370208978653, 18.033377826213837, 19.457731395959854, 18.925342708826065, 18.80787778645754, 19.85969115048647, 19.903482869267464, 19.78808268904686, 19.59916576743126, 19.66019533574581, 19.70230881124735, 18.321076408028603, 17.560996115207672, 19.59974877536297, 18.953299149870872, 19.1397937014699, 17.809665761888027, 17.581193707883358, 17.811651341617107, 20.091176964342594, 19.61938850581646, 19.70568858087063, 18.68592482060194, 17.46576465666294, 20.429160445928574, 18.951496109366417, 19.6601003408432, 19.75570246577263, 19.911267794668674, 19.795824773609638, 19.68543790280819, 17.283450812101364, 17.107877880334854, 17.086253501474857, 19.718260504305363, 19.395122304558754, 19.48140189051628, 18.19243375211954, 18.234260380268097, 19.72759049385786, 19.099523313343525, 19.0291590988636, 17.559890635311604, 18.006295897066593, 20.267398096621037, 19.066648557782173, 18.96218303591013, 19.02046985924244, 18.288335762917995, 17.666424624621868, 18.193315714597702, 17.31409691274166, 19.64403595775366, 17.420531250536442, 17.496468499302864, 19.42122634500265, 19.659455865621567, 17.549972981214523, 19.84760072082281, 18.961749970912933, 17.82825868576765, 19.897676073014736, 19.495224580168724, 19.23294924199581, 17.598883248865604, 17.702127806842327, 19.64904833585024, 19.199362955987453, 19.08513344824314, 19.820932298898697, 18.222901038825512, 19.73537914454937, 19.561490043997765, 19.35706753283739, 17.377187497913837, 17.730320803821087, 20.341763272881508, 21.344629116356373, 18.869448453187943, 18.00024602562189, 22.75112271308899, 19.67073231935501, 19.495720975100994, 19.897066056728363, 20.220434293150902, 20.20485419780016, 18.031388521194458, 20.035712979733944, 19.396882504224777, 18.419066444039345, 19.158259965479374, 23.28279707580805, 26.352177374064922, 23.04469421505928, 25.931977666914463, 20.300455391407013, 18.468422815203667, 17.356042750179768, 20.252867601811886, 18.771743401885033, 19.370805472135544, 17.165924422442913, 18.17844994366169, 20.093501545488834, 17.89596863090992, 19.08557489514351, 19.84040904790163, 20.225321874022484, 18.64787098020315, 18.189464695751667, 19.333962351083755, 18.63439381122589, 18.6527818441391, 18.547854386270046, 18.227022141218185, 19.74108535796404, 19.153058528900146, 17.145763151347637, 18.384219147264957, 17.8027069196105, 20.145556889474392, 18.087436445057392, 18.946826457977295, 17.698933370411396, 17.50192977488041, 18.06466467678547, 17.92551577091217, 19.833206199109554, 17.885264940559864, 19.9053967371583, 18.42530257999897, 19.32044606655836, 21.1830735206604, 25.04105493426323, 20.582230761647224, 20.033924840390682, 17.670420929789543, 26.84263326227665, 30.463782139122486, 26.138581335544586, 23.587793111801147, 20.372035913169384, 19.615069031715393, 19.300958141684532, 18.995201215147972, 19.900363869965076, 20.072675310075283, 20.037997514009476, 20.5268869176507, 19.500451162457466, 19.76707298308611, 19.17632296681404, 19.809297285974026, 26.475917547941208, 21.18447981774807, 21.271190606057644, 19.963756203651428, 19.992497749626637, 18.62432900816202, 19.66909598559141, 19.92170698940754, 22.268520668148994, 22.0201276242733, 19.798354245722294, 19.142174161970615, 19.572113640606403, 18.299518153071404, 19.491329789161682, 19.533180631697178, 17.666995525360107, 19.60616558790207, 19.917000085115433, 18.785592168569565, 19.833979196846485, 19.704248756170273, 19.739660434424877, 19.617337733507156, 19.768002443015575, 19.6972768753767, 20.15755046159029, 18.82093958556652, 19.825578667223454, 19.755185581743717, 18.608986400067806, 19.533975049853325, 18.328962847590446, 17.60114636272192, 19.718232564628124, 19.147983752191067, 19.22568492591381, 19.561617635190487, 16.672766767442226, 17.132462933659554, 19.453919492661953, 19.377384334802628, 19.89542320370674, 17.291241325438023, 17.684991471469402, 17.668419517576694, 18.334115855395794, 17.495817504823208, 19.507533870637417, 18.928902223706245, 18.007544800639153, 18.01751647144556, 19.68338806182146, 19.35314852744341, 18.643789924681187, 19.412162713706493, 17.695240676403046, 17.7126070484519, 19.95811890810728, 20.284045487642288, 19.68610007315874, 20.745056681334972, 20.379441790282726, 19.681211560964584, 19.84207145869732, 19.866859540343285, 20.010313019156456, 20.550892688333988, 19.816803745925426, 19.949031993746758, 19.413922913372517, 17.68647786229849, 17.27758627384901, 19.9611596763134, 17.468957230448723, 17.52469129860401, 17.51561462879181, 17.64142606407404, 18.134857527911663, 17.3287196084857, 17.859657295048237, 17.820309847593307, 17.615250311791897, 19.224435091018677, 19.279287196695805, 19.32809129357338, 21.626558154821396, 19.425878301262856, 19.893217831850052, 17.7337983623147, 17.845424823462963, 18.27756129205227, 17.205726355314255, 19.295056350529194, 19.395655021071434, 20.98079025745392, 19.813058897852898, 19.63210664689541, 17.13807974010706, 17.488128505647182, 19.950060173869133, 19.91802640259266, 19.956793636083603, 20.698195323348045, 19.81038600206375, 19.90971527993679, 19.91422101855278, 19.77500133216381, 18.417528830468655, 19.799289293587208, 19.976175390183926, 17.35353283584118, 17.645332030951977, 18.34243442863226, 19.49228346347809, 19.173866137862206, 19.2861407995224, 19.87410243600607, 19.96649242937565, 18.395335413515568, 18.365105614066124, 20.046480931341648, 19.596106372773647, 20.066832192242146, 19.61404550820589, 19.67940852046013, 18.860221840441227, 19.65573336929083, 19.713488407433033, 19.90026142448187, 19.885319285094738, 19.810608588159084, 17.83687900751829, 19.902481697499752, 22.590165957808495, 19.351582042872906, 19.776932895183563, 19.834629260003567, 19.944433122873306, 17.49483495950699, 17.52128079533577, 17.57581625133753, 19.705912098288536, 19.303154200315475, 19.46783810853958, 19.941632635891438, 19.665399566292763, 17.536940053105354, 17.616289667785168, 17.519704066216946, 20.838472060859203, 19.567173905670643, 19.532419741153717, 17.619499936699867, 18.21078546345234, 17.664550803601742, 19.687156192958355, 19.754069857299328, 19.300674088299274, 18.25758721679449, 19.6673683822155, 19.849072210490704, 19.316423684358597, 19.70081403851509, 19.82889510691166, 17.605051398277283, 18.525978550314903, 19.80527676641941, 18.213292583823204, 19.147026352584362, 17.606069333851337, 19.33292578905821, 19.65622790157795, 17.065766267478466, 18.052040599286556, 19.77319549769163, 18.351007252931595, 17.258149571716785, 19.781513139605522, 19.244501367211342, 19.394868053495884, 19.449813291430473, 20.02726588398218, 20.097244530916214, 19.89892777055502, 19.505053758621216, 19.77059617638588, 18.236798234283924, 19.862609915435314, 19.736502319574356, 19.33429390192032, 19.540698267519474, 20.392853766679764, 19.58717592060566, 21.147865802049637, 19.2378219217062, 19.780756905674934, 19.842933863401413, 19.835629500448704, 19.469615072011948, 19.97730601578951, 19.79093626141548, 19.889342598617077, 19.915089942514896, 19.840676337480545, 19.927301444113255, 19.7396632283926, 19.637903198599815, 19.613664597272873, 19.750473089516163, 19.448370672762394, 17.605462111532688, 17.947501502931118, 17.54690334200859, 17.51326024532318, 17.249596305191517, 21.50038629770279, 18.53495091199875, 19.638716243207455, 20.391372963786125, 19.88009549677372, 19.855194725096226, 19.266502000391483, 22.104802541434765, 20.335343666374683, 19.871669821441174, 19.712052308022976, 22.03679457306862, 19.85254790633917, 19.952932372689247, 19.83189582824707, 20.002441480755806, 19.823338836431503, 19.98490560799837, 19.799567759037018, 19.890095107257366, 17.892591655254364, 17.88582094013691, 19.729867577552795, 19.47041228413582, 19.03813425451517, 21.544992923736572, 19.908452406525612, 19.8271656408906, 19.95046716183424, 19.749888218939304, 18.64731963723898, 19.511191174387932, 20.173818804323673, 21.082094870507717, 19.739927724003792, 18.96864641457796, 19.886751659214497, 20.121075212955475, 19.689401611685753, 19.723746925592422, 19.63928807526827, 20.082619972527027, 19.832315854728222, 18.468250520527363, 151.8133543431759, 146.15744445472956, 154.886307194829, 26.41600277274847, 29.658405110239983, 44.098460115492344, 47.18825127929449, 48.281800001859665, 51.004162058234215, 53.47217619419098, 55.84521684795618, 53.554948419332504, 54.37666643410921, 57.961554266512394, 60.349482111632824, 64.38795942813158, 67.19775777310133, 69.55818552523851, 74.99879878014326, 83.10976717621088, 86.51439845561981, 88.21238297969103, 93.81596650928259, 96.19002789258957, 97.92741946876049, 98.33385609090328, 101.99065506458282, 103.8010148331523, 106.46722465753555, 104.98296283185482, 100.68327840417624, 99.12242088466883, 97.0092685893178, 94.07430794090033, 92.11030695587397, 89.86488077789545, 87.69274782389402, 84.61871277540922, 83.08538794517517, 81.18721563369036, 78.69940157979727, 76.43388025462627, 75.18965378403664, 73.0299735441804, 70.1646227389574, 68.57496965676546, 63.745858147740364, 62.56003398448229, 63.35217226296663, 59.48503781110048, 59.772868640720844, 55.79452496021986, 53.19666303694248, 57.996153831481934, 56.286473758518696, 51.82688403874636, 51.9828274846077, 50.21723173558712, 46.82396724820137, 44.940344989299774, 41.6953694075346, 40.43550789356232, 38.26224710792303, 34.00111757218838, 38.32045663148165, 34.00907851755619, 32.070149667561054, 29.332187958061695, 26.962717063724995, 25.456381030380726, 23.00405502319336, 19.709370099008083, 19.84899863600731, 17.23681390285492, 18.306946381926537, 17.497255466878414, 17.654459923505783, 17.767234705388546, 18.002166412770748, 19.527380354702473, 19.50552873313427, 16.97408314794302, 17.351184040308, 17.590049654245377, 17.22275000065565, 19.55911610275507, 19.606555812060833, 21.437092684209347, 21.16272784769535, 19.862773828208447, 19.895078614354134, 19.746131263673306, 19.877605140209198, 19.666320644319057, 15.303029678761959, 20.421935245394707, 18.163399770855904, 19.79917846620083, 17.019945196807384, 16.688360832631588, 19.880978390574455, 19.222212955355644, 19.467453472316265, 19.545866176486015, 18.23718287050724, 17.44931749999523, 17.53390673547983, 17.195289954543114, 17.702207900583744, 17.422659322619438, 19.35467403382063, 19.39215324819088, 19.479974173009396, 17.568359151482582, 17.180388793349266, 17.506597563624382, 17.04414188861847, 17.68558192998171, 17.356760799884796, 17.35534705221653, 17.548277974128723, 17.369313165545464, 19.80794593691826, 19.353429786860943, 18.287835642695427, 19.584390334784985, 17.502283677458763, 16.903044655919075, 17.687564715743065, 17.411011271178722, 18.10949109494686, 17.29482039809227, 19.34988424181938, 17.706312239170074, 17.212956212460995, 17.32070092111826, 16.961202956736088, 20.966934971511364, 17.65818428248167, 17.319146543741226, 23.001807741820812, 17.437199130654335, 17.758366651833057, 18.286305479705334, 17.364819534122944, 17.241000197827816, 16.607183031737804, 16.911273822188377, 16.94510690867901, 16.76879357546568, 17.73993670940399, 17.429732717573643, 17.737646587193012, 20.769305527210236, 23.49540777504444, 19.54059023410082, 17.173245549201965, 17.017316073179245, 16.64792373776436, 16.537564806640148, 20.03407198935747, 19.926968030631542, 17.609904520213604, 17.405529506504536, 19.652849063277245, 18.921888433396816, 17.555070109665394, 17.22101867198944, 17.622350715100765, 18.078294582664967, 28.206857852637768, 25.45434981584549, 21.00928220897913, 19.76410672068596, 19.648514688014984, 19.88296117633581, 19.469990395009518, 19.097083248198032, 19.49962042272091, 17.633906565606594, 17.378040589392185, 17.468465492129326, 17.241445370018482, 17.766048200428486, 17.641334794461727, 20.213385112583637, 19.07326839864254, 19.495309330523014, 17.649241723120213, 19.82042659074068, 19.7813268750906, 17.32016447931528, 17.64708198606968, 17.632114700973034, 17.831839621067047, 17.550653778016567, 19.653630442917347, 18.941860646009445, 19.520043395459652, 19.76111624389887, 19.79719754308462, 17.56996661424637, 17.364900559186935, 20.9314888343215, 22.061537951231003, 20.14787681400776, 19.209137186408043, 18.32044031471014, 17.28244498372078, 17.771516926586628, 17.138516530394554, 17.553016543388367, 17.285441048443317, 17.550389282405376, 17.27123185992241, 20.04509884864092, 19.96830478310585, 19.391116686165333, 19.769178703427315, 18.984409049153328, 19.76387295871973, 19.536166451871395, 19.625399261713028, 19.647189415991306, 19.943730905652046, 19.61665879935026, 23.059002123773098, 20.236248150467873, 19.90070752799511, 17.237025313079357, 19.417446106672287, 19.7150195017457, 19.32383980602026, 19.73108761012554, 19.447818398475647, 19.874220713973045, 19.86004039645195, 19.94180493056774, 20.33230010420084, 19.869640469551086, 22.13390450924635, 19.172973930835724, 19.738941453397274, 19.83043272048235, 19.916553050279617, 19.783136434853077, 19.84485425055027, 19.823127426207066, 19.915089942514896, 19.883939996361732, 20.294525660574436, 19.598083570599556, 19.747307524085045, 19.02608945965767, 17.924830317497253, 19.68240085989237, 19.93537973612547, 19.78851854801178, 19.574737176299095, 19.595935940742493, 20.389034412801266, 19.727877341210842, 19.70005501061678, 19.20533925294876, 19.679450429975986, 17.54475850611925, 17.588854767382145, 18.367687240242958, 19.489437341690063, 19.550557248294353, 17.598859034478664, 18.35548784583807, 19.537017680704594, 18.93837284296751, 18.686413764953613, 20.258832722902298, 19.783303141593933, 20.01291699707508, 19.71615757793188, 19.653545692563057, 19.546734169125557, 18.094142898917198, 18.665896728634834, 19.701550714671612, 18.85502226650715, 18.612787127494812, 19.782465882599354, 20.307404920458794, 19.951279275119305, 19.62737925350666, 19.795442931354046, 17.403410747647285, 17.57449470460415, 17.6902636885643, 17.600655555725098, 19.50322836637497, 17.107571475207806, 17.178120091557503, 19.68060154467821, 17.6807614043355, 17.434981651604176, 17.14351959526539, 17.01830606907606, 17.820806242525578, 17.34037697315216, 19.224898889660835, 18.741676583886147, 20.11950872838497, 18.326759338378906, 19.68203391879797, 19.691526889801025, 19.59018874913454, 17.596515826880932, 28.559344820678234, 25.80110263079405, 28.82659249007702, 23.688998073339462, 26.430665515363216, 23.07810354977846, 19.045975990593433, 19.75037530064583, 19.722606986761093, 19.983789883553982, 19.33916937559843, 19.786693155765533, 19.660445861518383, 19.659949466586113, 22.43645489215851, 19.61376052349806, 19.747952930629253, 19.168776459991932, 20.503667183220387, 21.294047124683857, 23.54301791638136, 22.88865763694048, 21.745257079601288, 19.92094051092863, 19.88683082163334, 32.036674208939075, 20.335529930889606, 19.967200234532356, 19.873120822012424, 19.616388715803623, 19.81299463659525, 19.729863852262497, 20.10987140238285, 19.76024080067873, 19.699142314493656, 19.825671799480915, 19.542920403182507, 19.713413901627064, 20.005307160317898, 18.05308274924755, 19.704281352460384, 18.261810764670372, 19.45957075804472, 17.69239827990532, 17.2647787258029, 17.477325163781643, 17.257899045944214, 17.135148867964745, 16.8813057243824, 17.210829071700573, 17.095827497541904, 17.304379492998123, 17.440207302570343, 17.65374932438135, 18.490453250706196, 19.83515452593565, 18.423834815621376, 17.25359447300434, 18.43075454235077, 17.209703102707863, 27.01309509575367, 23.78299180418253, 20.3954866155982, 23.227088153362274, 21.54380362480879, 20.05703467875719, 20.446782931685448, 20.180058665573597, 18.9330093562603, 19.6398189291358, 20.311471074819565, 18.364302814006805, 19.751067273318768, 19.959629513323307, 19.611491821706295, 20.106211304664612, 20.088711753487587, 19.86890286207199, 19.80910263955593, 19.752945750951767, 19.478995352983475, 19.972669892013073, 19.63864080607891, 19.510584883391857, 18.33773124963045, 20.153457298874855, 25.897450745105743, 19.841372035443783, 18.15770659595728, 17.59801898151636, 20.31067479401827, 19.223579205572605, 19.45405639708042, 17.588520422577858, 20.419606938958168, 20.340153947472572, 24.98724590986967, 25.82318615168333, 23.071243427693844, 19.61285900324583, 20.191135816276073, 20.483750849962234, 19.71884537488222, 19.78130452334881, 17.932464368641376, 19.7394210845232, 19.48554441332817, 18.424679525196552, 19.65511217713356, 19.989325664937496, 19.673538394272327, 19.986565224</t>
+          <t>ImprovedInferline</t>
         </is>
       </c>
     </row>

--- a/image_preprocessing/two_vertex/accuracy_degradation/virtual/virtual_bert24.xlsx
+++ b/image_preprocessing/two_vertex/accuracy_degradation/virtual/virtual_bert24.xlsx
@@ -8,6 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Arrival Information" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Planner Configuration" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Planner Config Run Results" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Planner Config Run Results(Raw)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Planner Config Run Results1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Planner Config Run Results(Raw)1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,11 +480,565 @@
         <v>2000</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ImprovedInferline</t>
+          <t>VanillaInferline</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mu (qps)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t># requests</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Latency Constraint (ms)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Planner</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>configuration</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Estimated Latency (ms)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VanillaInferline</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"bert/VClassifier": {"config": {"INPUT_INFO": {"&lt;class 'list'&gt;": ["data"]}, "OUTPUT_INFO": "&lt;class 'list'&gt;", "input_shape": null, "output_shape": null}, "ppu_state": {"Sentimental-bert24-2/tokenizer": {"num_replicas": 3, "max_batch_size": 8, "resources": {"CPU1": 1}}, "Sentimental-bert24-2/bert24_p2_stage0": {"num_replicas": 3, "max_batch_size": 8, "resources": {"Tesla P40": 1}, "num_gpus": 1}, "Sentimental-bert24-2/bert24-p2-stage1": {"num_replicas": 2, "max_batch_size": 8, "resources": {"Tesla P40": 1}, "num_gpus": 1}}, "ppu_identifier": "Sentimental-bert24-2"}}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>92.595240672429</v>
+      </c>
+      <c r="I2" t="n">
+        <v>53</v>
+      </c>
+      <c r="J2" t="n">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mu (qps)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t># requests</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Latency Constraint (ms)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Planner</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Estimated Latency (ms)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ingest mu Observed (qps)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Throughput (qps)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>p95 (ms)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>p99 (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VanillaInferline</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>92.595240672429</v>
+      </c>
+      <c r="H2" t="n">
+        <v>53</v>
+      </c>
+      <c r="I2" t="n">
+        <v>93</v>
+      </c>
+      <c r="J2" t="n">
+        <v>163.8094178216107</v>
+      </c>
+      <c r="K2" t="n">
+        <v>38.48712692490508</v>
+      </c>
+      <c r="L2" t="n">
+        <v>430.2014597691596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>471.091006603092</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mu (qps)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t># requests</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Latency Constraint (ms)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Planner</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Estimated Latency (ms)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Latency (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VanillaInferline</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>92.595240672429</v>
+      </c>
+      <c r="H2" t="n">
+        <v>53</v>
+      </c>
+      <c r="I2" t="n">
+        <v>93</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[81.82883262634277, 63.13277129083872, 74.75474663078785, 111.29750963300467, 112.58629616349936, 95.43579816818237, 137.68700789660215, 133.62255319952965, 130.63851092010736, 125.0125952064991, 119.61683444678783, 113.93269523978233, 124.37858432531357, 118.8901960849762, 113.79534099251032, 117.80026648193598, 117.01701581478119, 102.18899976462126, 137.37352471798658, 131.04739226400852, 125.9844359010458, 120.32927107065916, 114.53772895038128, 75.93040447682142, 125.25070086121559, 119.67826914042234, 113.72754257172346, 108.0300398170948, 103.37772220373154, 97.13690634816885, 94.09133903682232, 51.5551557764411, 46.0720919072628, 89.30570166558027, 84.3497971072793, 79.39934730529785, 74.25468787550926, 69.54454630613327, 64.64672181755304, 50.314584746956825, 44.62775308638811, 46.40430398285389, 48.28403610736132, 45.41529808193445, 45.35938333719969, 41.111648082733154, 41.05939622968435, 44.62222848087549, 41.58603213727474, 40.590979158878326, 43.61994005739689, 48.12117200344801, 44.81640551239252, 43.835436925292015, 39.94399216026068, 40.4117489233613, 45.51953449845314, 45.13205122202635, 45.041835866868496, 44.14058476686478, 39.592815563082695, 40.04541877657175, 39.94491323828697, 41.11322294920683, 44.138167053461075, 39.960745722055435, 40.06083123385906, 38.68122026324272, 41.195943020284176, 38.63485623151064, 38.32047712057829, 44.64923311024904, 39.835684932768345, 44.96303293853998, 39.82172813266516, 53.01872547715902, 47.670623287558556, 57.07298964262009, 51.21691897511482, 53.6765530705452, 48.67945238947868, 56.87804892659187, 50.96451099961996, 50.90174823999405, 50.76682474464178, 45.08700966835022, 45.094444416463375, 39.870201610028744, 40.853788144886494, 47.79555182904005, 45.21535988897085, 51.77068244665861, 47.65968956053257, 50.4200030118227, 45.7804212346673, 50.805079750716686, 45.199126936495304, 39.14134297519922, 41.57767444849014, 46.55885975807905, 41.22461099177599, 45.459602028131485, 45.2087689191103, 41.52075294405222, 44.53839920461178, 50.44094379991293, 45.48831470310688, 49.48542546480894, 44.24181021749973, 41.821397840976715, 38.11708092689514, 39.750104770064354, 38.218967616558075, 38.6437363922596, 40.12565314769745, 42.62496717274189, 44.16965041309595, 41.842066682875156, 41.223831474781036, 45.39870657026768, 44.49197184294462, 44.62451580911875, 42.88536589592695, 39.633565582334995, 40.83750117570162, 41.3917675614357, 45.238771475851536, 46.724243089556694, 44.618899933993816, 45.97104247659445, 51.356056705117226, 46.502633951604366, 52.46319342404604, 46.86575662344694, 44.493566267192364, 47.11445141583681, 41.619088500738144, 47.47917968779802, 45.04367522895336, 45.035299845039845, 41.72845650464296, 42.065572924911976, 43.77793800085783, 39.626733399927616, 39.61373586207628, 40.681663900613785, 40.173581801354885, 43.98643504828215, 49.86473638564348, 45.2371658757329, 47.96778876334429, 42.367784306406975, 44.586959294974804, 44.5804912596941, 45.989411883056164, 52.24195774644613, 46.928360126912594, 52.324967458844185, 46.52451351284981, 51.057047210633755, 45.827869325876236, 43.70155557990074, 40.26835039258003, 46.70584760606289, 45.21170910447836, 46.35113105177879, 42.00137127190828, 44.49593462049961, 47.79823124408722, 43.10361389070749, 48.13744779676199, 47.06093017011881, 53.92218939960003, 50.84245838224888, 45.41626572608948, 50.751800648868084, 63.6440496891737, 56.319765746593475, 48.26042987406254, 64.5311027765274, 60.30138023197651, 51.17954779416323, 45.70683743804693, 51.15924682468176, 51.232258789241314, 51.16224382072687, 47.111029736697674, 45.28358951210976, 44.3960465490818, 39.18323013931513, 38.66132162511349, 44.109463691711426, 45.14925368130207, 41.43327008932829, 46.49749398231506, 45.9045460447669, 52.83457972109318, 48.02496172487736, 47.15505614876747, 47.498433850705624, 51.29465740174055, 45.538595877587795, 51.30788404494524, 45.9496071562171, 53.16623952239752, 47.48910013586283, 56.92770145833492, 51.42025277018547, 51.698838360607624, 58.69762413203716, 56.39032181352377, 50.80398637801409, 51.14844534546137, 48.74107427895069, 51.057483069598675, 46.5907771140337, 47.75975551456213, 45.951416715979576, 51.30613502115011, 45.74809316545725, 46.07332497835159, 46.36006895452738, 50.494407303631306, 45.5677630379796, 46.92596755921841, 41.69968981295824, 39.9753013625741, 50.26452336460352, 45.26768438518047, 50.77981948852539, 45.06926238536835, 51.06625519692898, 51.117073744535446, 51.21016316115856, 51.02931894361973, 50.80264713615179, 45.370385982096195, 41.05884302407503, 40.62384366989136, 44.12929154932499, 39.87687826156616, 44.84205227345228, 43.88445522636175, 44.359805062413216, 44.85315550118685, 51.50030739605427, 48.16580191254616, 51.48680694401264, 45.90690787881613, 51.50357075035572, 46.27031181007624, 44.61727663874626, 45.127324759960175, 41.05767607688904, 41.013781912624836, 43.88132318854332, 40.82799982279539, 46.88362777233124, 45.01693043857813, 45.43001018464565, 41.53769463300705, 44.20753102749586, 40.46273045241833, 42.32275765389204, 45.1730964705348, 39.35141395777464, 46.893490478396416, 46.45785503089428, 46.2396964430809, 44.103480875492096, 45.88303808122873, 53.15669625997543, 50.252689979970455, 51.83552950620651, 46.66567873209715, 50.36805849522352, 45.156034640967846, 39.99363537877798, 39.980835281312466, 41.27859137952328, 39.95088580995798, 41.4651008322835, 40.33282399177551, 41.773742996156216, 39.74509425461292, 46.562633477151394, 43.4853620827198, 43.199872598052025, 42.07721073180437, 44.87581364810467, 41.37194994837046, 44.48305070400238, 39.34609144926071, 40.584820322692394, 41.83969181030989, 40.09675793349743, 50.50353612750769, 50.72131846100092, 45.50900496542454, 51.36816389858723, 45.27364671230316, 44.037699699401855, 44.72173936665058, 44.72492169588804, 51.16025730967522, 45.95248028635979, 51.140742376446724, 45.45627161860466, 42.06507932394743, 45.43400928378105, 41.45283158868551, 39.78227637708187, 41.209906339645386, 40.63878860324621, 44.58154737949371, 40.59894382953644, 43.48523262888193, 44.34045497328043, 38.978119380772114, 39.466396905481815, 45.00351566821337, 44.804287143051624, 41.02453403174877, 45.108203776180744, 45.03039922565222, 45.18272913992405, 45.874577946960926, 52.708507515490055, 46.5405248105526, 45.210033655166626, 43.85766200721264, 43.87144185602665, 52.7426702901721, 47.40858543664217, 52.06221807748079, 47.953165136277676, 50.93435384333134, 45.316130854189396, 51.415170542895794, 45.731937512755394, 45.31199764460325, 40.2049720287323, 41.27713292837143, 47.448571771383286, 42.007927782833576, 42.66399145126343, 44.97112147510052, 45.65724451094866, 44.10323780030012, 44.78632751852274, 40.7789284363389, 40.90479388833046, 39.40984886139631, 51.042817533016205, 46.567666344344616, 51.62171181291342, 50.5323288962245, 51.13888066262007, 46.07639089226723, 40.738534182310104, 38.96871116012335, 50.21489318460226, 45.58998346328735, 51.3592129573226, 50.4829166457057, 51.47528275847435, 46.928233467042446, 40.86332023143768, 44.22824364155531, 39.36841245740652, 39.30403385311365, 41.976782493293285, 40.90948775410652, 46.13959975540638, 44.496070593595505, 50.6422808393836, 45.67228816449642, 50.698657520115376, 45.23780196905136, 46.72248847782612, 45.18507048487663, 52.33899690210819, 50.50109792500734, 45.23695446550846, 44.9063153937459, 42.06540901213884, 42.70956851541996, 40.754808112978935, 44.9882410466671, 47.97172453254461, 42.26365312933922, 44.666772708296776, 50.702689215540886, 46.002316288650036, 47.824764624238014, 46.03187274187803, 45.26546597480774, 43.81958954036236, 42.04011056572199, 39.379083551466465, 37.655276246368885, 40.65379500389099, 44.1012978553772, 42.79590770602226, 44.845583848655224, 62.815725803375244, 57.639419101178646, 64.41505718976259, 64.64107148349285, 58.94480273127556, 72.65159394592047, 65.79045299440622, 60.29414385557175, 54.84096426516771, 51.5615101903677, 50.4374448210001, 44.32621132582426, 50.136689096689224, 50.69521255791187, 45.83820328116417, 50.393156707286835, 45.32553721219301, 38.50953746587038, 44.53775193542242, 44.48385909199715, 41.01473744958639, 45.65507639199495, 40.76605010777712, 44.391704723238945, 44.56841293722391, 39.118911139667034, 54.35498896986246, 51.025656051933765, 51.255094818770885, 46.7504495754838, 52.74848733097315, 47.15442564338446, 46.551862731575966, 53.6526869982481, 51.99594609439373, 45.929644256830215, 45.70977110415697, 44.58471294492483, 46.0046362131834, 41.670129634439945, 44.33922376483679, 39.51048664748669, 50.52303150296211, 46.09134793281555, 50.71959737688303, 47.587212175130844, 50.42995139956474, 45.18380016088486, 45.54771352559328, 42.06549841910601, 41.62748623639345, 39.506309665739536, 44.550277292728424, 38.68915792554617, 45.255198143422604, 39.574687369167805, 47.06075042486191, 50.15206336975098, 50.856852903962135, 71.05753757059574, 69.70375869423151, 85.07843408733606, 80.60073480010033, 75.06459765136242, 71.33066467940807, 76.37130655348301, 71.01308275014162, 65.53744617849588, 59.93392504751682, 54.28144056349993, 50.88319629430771, 49.57597982138395, 44.36647705733776, 39.57556001842022, 52.27805022150278, 48.68397396057844, 46.475447714328766, 52.773729898035526, 47.74061311036348, 46.155624091625214, 52.72827483713627, 51.35574657469988, 45.817906036973, 45.56695092469454, 40.596505627036095, 45.025357976555824, 46.107204630970955, 41.34941007941961, 44.71431393176317, 39.45059888064861, 47.07900620996952, 54.213943891227245, 50.33061560243368, 60.28854101896286, 54.522404447197914, 59.027926065027714, 53.60865127295256, 47.71861340850592, 54.42794784903526, 69.78895794600248, 76.67658943682909, 76.27583481371403, 67.28040613234043, 65.5204663053155, 76.5018668025732, 70.52282243967056, 65.15518389642239, 69.09278221428394, 74.84954316169024, 74.5934545993805, 69.60146687924862, 63.201241195201874, 64.84941206872463, 59.229711070656776, 72.14024662971497, 65.84841944277287, 60.78987754881382, 56.08349293470383, 51.61699000746012, 59.87924709916115, 56.75731133669615, 51.271178759634495, 51.16174556314945, 45.69548834115267, 50.814904272556305, 44.56441383808851, 43.5797655954957, 40.06213415414095, 41.110445745289326, 39.959847927093506, 44.14969123899937, 46.78196553140879, 41.94438736885786, 44.658102095127106, 39.94371276348829, 41.78435355424881, 41.419520042836666, 39.54844083636999, 52.326394245028496, 47.43439704179764, 51.75682995468378, 46.32420651614666, 50.8140129968524, 45.33323738723993, 41.66179895401001, 39.4835639744997, 50.720058381557465, 45.544978231191635, 50.844186916947365, 45.94263341277838, 50.68619083613157, 44.5854002609849, 44.530668295919895, 47.099034301936626, 46.79926484823227, 53.43751423060894, 51.27960257232189, 46.08205799013376, 44.67620234936476, 52.76426300406456, 45.33913731575012, 46.42542824149132, 41.46211966872215, 46.360716223716736, 56.69086333364248, 50.866881385445595, 50.48082862049341, 50.81653967499733, 45.231983065605164, 42.75998938828707, 39.56744819879532, 38.77387661486864, 38.880715146660805, 40.66650941967964, 44.81603857129812, 173.24528191238642, 167.6737880334258, 163.83730340749025, 157.33390115201473, 168.56421623378992, 163.0372265353799, 168.21790300309658, 65.81150088459253, 70.75947895646095, 79.85137775540352, 87.53716293722391, 89.03469983488321, 89.03522416949272, 114.44060318171978, 114.50821906328201, 129.6887118369341, 130.20230922847986, 145.55592369288206, 145.75524721294641, 148.11946265399456, 148.11100345104933, 259.2566404491663, 261.3326944410801, 352.37891133874655, 354.1932497173548, 354.1078483685851, 358.3274343982339, 371.3587410748005, 372.85353895276785, 373.6671721562743, 373.43461345881224, 373.32366220653057, 370.3811941668391, 411.8235846981406, 406.37291595339775, 400.93065425753593, 388.7857897207141, 429.6682523563504, 424.3123671039939, 418.12579799443483, 413.1981935352087, 407.85994566977024, 401.8938150256872, 431.37118220329285, 425.9869111701846, 425.11428240686655, 442.3809088766575, 437.2966131195426, 432.6374800875783, 430.18600065261126, 424.95202645659447, 419.54412776976824, 407.4570694938302, 405.24281095713377, 399.90447275340557, 462.02490478754044, 454.0540250018239, 451.71366818249226, 446.10634446144104, 439.9523176252842, 434.2056391760707, 428.46919875591993, 424.67139940708876, 423.5991556197405, 418.6284076422453, 413.5116944089532, 410.39467323571444, 404.8573626205325, 399.95880145579576, 425.3424722701311, 422.79150802642107, 419.96402852237225, 434.5938265323639, 430.8621659874916, 442.35718715935946, 436.5914901718497, 431.6439898684621, 435.50855573266745, 430.80186285078526, 425.3978580236435, 420.187602750957, 399.0335427224636, 398.006078787148, 397.1905065700412, 395.0247997418046, 393.98868661373854, 396.1330959573388, 394.28497571498156, 401.21869556605816, 393.0756654590368, 390.79969748854637, 384.4623723998666, 389.3717722967267, 402.587809599936, 397.4771071225405, 394.9206741526723, 389.2236538231373, 383.5387574508786, 374.75486006587744, 408.4936212748289, 399.7982610017061, 395.45919839292765, 448.7680457532406, 444.5644384250045, 435.8332110568881, 430.34059181809425, 435.40237564593554, 460.2798167616129, 456.95442892611027, 453.1763568520546, 447.8516047820449, 473.82896207273006, 441.8743681162596, 486.7963679134846, 483.93671680241823, 479.18256372213364, 474.30506255477667, 483.10318123549223, 471.07056248933077, 468.17582193762064, 463.066678494215, 457.67197478562593, 451.7086101695895, 449.1019109264016, 443.46148148179054, 438.289993442595, 433.4645215421915, 427.6279751211405, 445.45530155301094, 465.01262579113245, 455.59622067958117, 462.3665390536189, 484.6178237348795, 479.7782329842448, 474.6394855901599, 472.0927681773901, 467.3048350960016, 461.8997322395444, 482.7879909425974, 482.7376389876008, 476.7498606815934, 473.5978217795491, 468.39639637619257, 485.22692546248436, 480.27298133820295, 474.3816992267966, 469.86556984484196, 464.8901503533125, 459.1501783579588, 455.52094001322985, 450.80871880054474, 445.39223331958055, 439.4653048366308, 435.4371018707752, 454.22951597720385, 449.9669838696718, 448.8131934776902, 443.15111823379993, 436.63393054157495, 474.8066021129489, 470.21161764860153, 466.7946696281433, 462.46942691504955, 456.9876966997981, 417.45970491319895, 485.8097117394209, 472.6188229396939, 468.87136343866587, 463.3958898484707, 457.6013972982764, 452.13459245860577, 448.39446526020765, 442.8929826244712, 461.8737921118736, 456.01382851600647, 450.86224656552076, 446.24924939125776, 442.54643842577934, 436.5327274426818, 430.8445677161217, 425.63257459551096, 420.6860875710845, 418.0062310770154, 412.5680821016431, 407.64993242919445, 443.5349255800247, 438.5092621669173, 435.1216983050108, 429.6393012627959, 424.6538197621703, 449.19626135379076, 443.6591397970915, 438.0749901756644, 432.64277651906013, 426.8496688455343, 421.487501822412, 416.80674161762, 411.69599536806345, 407.2603965178132, 401.4493329450488, 395.7116110250354, 389.95311968028545, 384.44143906235695, 380.27753587812185, 405.7231452316046, 405.73013480752707, 400.9247086942196, 395.49360796809196, 395.0069397687912, 402.7666300535202, 397.95343950390816, 394.12796869874, 389.36827052384615, 383.893521502614, 378.1725261360407, 371.75441440194845, 366.13941099494696, 375.82542560994625, 370.01993227750063, 368.5099286958575, 365.3198145329952, 359.602858312428, 353.16560883075, 349.4697567075491, 344.7487037628889, 339.8485854268074, 350.2774313092232, 350.4406251013279, 344.0403398126364, 338.4445318952203, 333.7166188284755, 328.5144828259945, 322.8080291301012, 316.62570498883724, 311.8641786277294, 307.8981451690197, 303.0958026647568, 298.5094962641597, 293.6520716175437, 287.8023134544492, 283.30590948462486, 278.1893815845251, 281.22255951166153, 280.88527638465166, 276.9165188074112, 271.10251504927874, 264.898719266057, 259.06949397176504, 252.86208651959896, 247.11710400879383, 241.7822005227208, 237.29663714766502, 233.36931131780148, 227.60678175836802, 221.52748331427574, 215.614665299654, 209.91592667996883, 204.63945902884007, 208.55193585157394, 202.94628385454416, 196.93763460963964, 191.75103586167097, 186.07619032263756, 179.92059793323278, 174.33914355933666, 169.16506551206112, 169.00929901748896, 163.67466375231743, 157.36240800470114, 152.5313062593341, 148.67230411618948, 143.74133199453354, 137.2978799045086, 132.47795309871435, 136.10349409282207, 128.44647839665413, 123.55930916965008, 119.73053589463234, 113.9901801943779, 108.53036772459745, 102.04093903303146, 97.558687441051, 91.50381851941347, 89.23693932592869, 83.46850145608187, 75.93190856277943, 71.32262270897627, 69.0247705206275, 65.51683880388737, 59.93080046027899, 53.86734660714865, 60.271807946264744, 54.786426946520805, 51.19972303509712, 47.99896664917469, 55.26502709835768, 50.97751133143902, 56.90747033804655, 63.4869234636426, 62.793550081551075, 63.59442416578531, 66.33130926638842, 61.731879599392414, 57.711876928806305, 52.48712468892336, 55.14821130782366, 58.848499320447445, 53.55587136000395, 61.40180770307779, 57.355284690856934, 51.75725743174553, 52.6163037866354, 46.01424280554056, 50.78445095568895, 48.847777768969536, 47.647010535001755, 44.70295552164316, 41.61904379725456, 37.495529279112816, 48.00199531018734, 46.34886793792248, 47.68946021795273, 56.60968367010355, 50.73077231645584, 53.75025328248739, 50.3917234018445, 51.552530378103256, 45.98510079085827, 40.7934645190835, 41.20951518416405, 47.10976965725422, 47.81250096857548, 51.29562597721815, 46.28761764615774, 52.44838818907738, 46.36227246373892, 41.734048165380955, 44.688441790640354, 41.01771768182516, 39.540049619972706, 44.53817382454872, 44.48848217725754, 47.368740662932396, 47.112294472754, 44.98319048434496, 46.16175405681133, 43.92573889344931, 44.584693387150764, 39.14255369454622, 39.23052176833153, 39.55085016787052, 40.352446027100086, 45.54475750774145, 52.85444296896458, 50.730351358652115, 50.71190558373928, 45.84219120442867, 51.469895988702774, 45.978523790836334, 40.405698120594025, 41.89850203692913, 40.28470441699028, 44.59264688193798, 39.368429221212864, 47.47062083333731, 52.0753338932991, 46.76241613924503, 53.74957341700792, 49.60261099040508, 46.254318207502365, 47.37073369324207, 46.844364143908024, 53.35786659270525, 50.46393629163504, 45.82456685602665, 42.75995213538408, 53.46233583986759, 50.74935406446457, 45.200482942163944, 44.31799240410328, 38.9214726164937, 42.04115271568298, 40.05204048007727, 39.97122962027788, 41.359178721904755, 45.75868230313063, 41.54453705996275, 45.4593924805522, 44.68429461121559, 50.9657496586442, 46.19890823960304, 44.042276218533516, 51.97047349065542, 47.80177213251591, 48.24380483478308, 44.76824030280113, 47.13516402989626, 44.37115974724293, 44.69334799796343, 42.18495450913906, 49.14850741624832, 46.27200122922659, 40.20064603537321, 45.342701487243176, 40.76719377189875, 44.76282652467489, 50.13081431388855, 57.96244367957115, 56.68514687567949, 63.966212794184685, 58.21691267192364, 52.67689470201731, 55.278909392654896, 51.89304891973734, 50.860499031841755, 54.324460215866566, 50.905353389680386, 54.92663197219372, 49.65345747768879, 45.98884750157595, 52.16097738593817, 49.37338177114725, 53.064377047121525, 47.563872300088406, 53.046511486172676, 48.04228059947491, 45.81834562122822, 45.31460348516703, 55.38162123411894, 51.85995530337095, 54.85452804714441, 49.62365049868822, 45.70588003844023, 46.33114952594042, 40.96624348312616, 41.375309228897095, 54.26113028079271, 49.678332172334194, 56.46977853029966, 65.77959563583136, 64.22347016632557, 59.76555775851011, 73.37894849479198, 70.06071507930756, 70.03762666136026, 64.80019073933363, 59.56451129168272, 53.89134306460619, 57.16029740869999, 51.460305228829384, 50.42665731161833, 47.08468448370695, 41.372353211045265, 40.16168788075447, 40.7661572098732, 37.762293592095375, 39.909071289002895, 44.01802830398083, 40.056658908724785, 44.10672280937433, 39.40654266625643, 42.017058469355106, 47.25691210478544, 41.725823655724525, 44.856141321361065, 47.10056632757187, 52.883113734424114, 47.797681763768196, 52.33620759099722, 47.73552995175123, 50.38611777126789, 44.76733785122633, 46.04273196309805, 40.046424604952335, 44.13956496864557, 44.03709340840578, 39.27940223366022, 41.63550864905119, 40.19198939204216, 57.97608755528927, 57.23357666283846, 59.65637881308794, 56.38569127768278, 51.40685196965933, 54.949148558080196, 51.396192982792854, 45.73753662407398, 45.123341493308544, 41.340963914990425, 40.491496212780476, 51.986927166581154, 46.600508503615856, 52.2130262106657, 46.57446965575218, 44.61766220629215, 45.29312439262867, 44.620697386562824, 44.548241421580315, 50.88977050036192, 50.48780515789986, 46.96595203131437, 41.55037458986044, 41.99489206075668, 40.25413282215595, 40.12333136051893, 45.621009543538094, 52.08242125809193, 46.730359084904194, 51.01668555289507, 44.74092647433281, 50.41839834302664, 45.27099058032036, 48.05630352348089, 47.81810473650694, 45.82664091140032, 46.07242811471224, 44.383700005710125, 44.47970073670149, 39.07029889523983, 39.17991928756237, 39.73909839987755, 46.60878889262676, 44.37022376805544, 45.19625939428806, 39.89838715642691, 40.75943771749735, 38.98386470973492, 45.82337383180857, 41.466751135885715, 57.11957160383463, 51.66812986135483, 47.89391066879034, 69.73659992218018, 64.32178430259228, 55.022033862769604, 50.521924160420895, 47.038255259394646, 44.98295672237873, 44.49282865971327, 44.38534006476402, 44.92050502449274, 40.22815637290478, 43.372063897550106, 48.2745161280036, 52.53895465284586, 46.96861747652292, 50.81336013972759, 45.128957368433475, 45.83305865526199, 40.55781289935112, 45.069871470332146, 45.77573016285896, 51.86318885535002, 51.052095368504524, 45.30680924654007, 45.7293838262558, 39.86127581447363, 45.018148608505726, 44.72827725112438, 45.462836511433125, 50.65584555268288, 46.803669072687626, 44.66177336871624, 51.84263736009598, 51.52584798634052, 45.87717540562153, 45.76863441616297, 42.41961147636175, 43.081686832010746, 39.89972360432148, 40.27065075933933, 39.876511320471764, 50.058635883033276, 45.114461332559586, 45.494467951357365, 44.12704519927502, 47.259398736059666, 44.42502651363611, 44.89761870354414, 41.379986330866814, 40.76347593218088, 46.38759605586529, 41.38478171080351, 45.74558977037668, 45.42106669396162, 45.43094336986542, 44.398944824934006, 42.82166808843613, 44.548734091222286, 41.14786069840193, 41.01234767585993, 45.87762616574764, 41.087234392762184, 41.500262916088104, 38.86150103062391, 52.1003408357501, 46.8057245016098, 50.78386887907982, 45.4529644921422, 50.81512313336134, 50.71628652513027, 47.16473910957575, 50.451358780264854, 53.65007743239403, 48.479797318577766, 52.19817068427801, 47.14806657284498, 44.20849587768316, 44.42164395004511, 38.554963655769825, 45.20511440932751, 51.22401658445597, 48.9113898947835, 45.0323186814785, 39.54655025154352, 46.44352104514837, 41.64233524352312, 56.887635961174965, 56.724678725004196, 60.4248121380806, 54.13666553795338, 51.77657585591078, 53.56378573924303, 48.18349797278643, 41.90017469227314, 44.257854111492634, 44.38786767423153, 40.00281170010567, 39.039043709635735, 40.34595098346472, 41.28794185817242, 50.9230038151145, 51.13969836384058, 50.60983821749687, 46.28112353384495, 50.95864459872246, 45.634228736162186, 40.978241711854935, 39.29606918245554, 40.68377614021301, 38.22783567011356, 41.148075833916664, 44.66303903609514, 38.66915870457888, 39.36631977558136, 38.38848602026701, 50.554750487208366, 45.47476302832365, 47.87268955260515, 44.5302352309227, 50.73472764343023, 45.09798530489206, 46.421827748417854, 45.11467460542917, 42.948621325194836, 42.67159756273031, 50.744093023240566, 45.93809787184, 52.27587651461363, 59.050893411040306, 59.16609615087509, 55.35499192774296, 50.55688135325909, 45.54668441414833, 44.49967574328184, 45.10132223367691, 44.4019204005599, 41.9822633266449, 45.90290132910013, 41.50905925780535, 45.07708456367254, 50.84809847176075, 45.629795640707016, 59.289813973009586, 53.982085548341274, 57.6902125030756, 57.18162655830383, 64.97746054083109, 63.30379005521536, 57.97255598008633, 52.27245856076479, 53.64616774022579, 53.37511841207743, 52.27574426680803, 46.946716494858265, 47.98026755452156, 50.748854875564575, 46.23550269752741, 50.54673831909895, 44.5121843367815, 41.314358823001385, 39.683591574430466, 44.51093915849924, 51.07823945581913, 46.403451822698116, 52.12201923131943, 46.7243567109108, 44.66230142861605, 44.45149563252926, 44.520677998661995, 44.41235959529877, 41.6191378608346, 44.52252574265003, 50.369035452604294, 45.38432043045759, 47.18095250427723, 44.55289710313082, 44.54113822430372, 43.993174098432064, 39.40186742693186, 39.232002571225166, 38.76301273703575, 38.85293938219547, 44.61873788386583, 39.30131159722805, 44.47637218981981, 44.6744104847312, 41.43075551837683, 44.50663551688194, 39.83080852776766, 46.91760707646608, 44.4677360355854, 44.59252394735813, 41.700975969433784, 40.88620841503143, 53.41084208339453, 47.8869304060936, 53.20949573069811, 47.73835465312004, 44.622067362070084, 51.415156573057175, 46.69376276433468, 75.3569696098566, 81.9232752546668, 85.32562293112278, 81.05730172246695, 77.31162756681442, 65.73595944792032, 85.46025771647692, 76.7858698964119, 70.69792225956917, 65.52410684525967, 60.207813046872616, 60.08513830602169, 56.766594760119915, 51.14402808248997, 47.65750281512737, 46.9935666769743, 42.99248103052378, 47.72952292114496, 41.53452627360821, 39.97236303985119, 39.03904464095831, 44.73421536386013, 39.24791142344475, 40.40960781276226, 44.32251304388046, 38.504162803292274, 42.84549690783024, 41.272553615272045, 52.83354502171278, 50.79630669206381, 51.53174977749586, 52.16913390904665, 46.83918599039316, 49.58148952573538, 45.28891947120428, 46.67344968765974, 50.71367882192135, 48.38497191667557, 42.07245260477066, 44.35116425156593, 44.63198594748974, 40.53923860192299, 40.65367765724659, 42.06972103565931, 40.43317958712578, 41.90143756568432, 48.474183306097984, 50.98293349146843, 46.24220449477434, 51.25123634934425, 44.81031559407711, 39.7751871496439, 38.85370586067438, 38.40105887502432, 38.58726378530264, 41.07406362891197, 48.40513505041599, 47.01361246407032, 46.419162303209305, 44.797017239034176, 44.55380979925394, 42.707785964012146, 39.77995365858078, 38.55875972658396, 37.9239721223712, 40.2603717520833, 38.8583866879344, 44.58186216652393, 37.995027378201485, 42.073276825249195, 44.97349914163351, 40.37810582667589, 51.62687227129936, 46.080173924565315, 51.65085569024086, 46.45837564021349, 46.41950875520706, 41.81809350848198, 45.823792926967144, 41.25082027167082, 41.89497325569391, 44.24045979976654, 47.87015076726675, 45.5051539465785, 47.667221166193485, 44.68105174601078, 47.715576365590096, 43.67731045931578, 44.77075394243002, 41.10572021454573, 40.09994771331549, 38.935987278819084, 39.26522936671972, 44.57818157970905, 44.586265459656715, 41.83661751449108, 42.16304235160351, 44.02582999318838, 45.012989081442356, 39.35910761356354, 40.76680261641741, 44.69422250986099, 39.09580782055855, 50.61629693955183, 45.12397013604641, 45.800439082086086, 50.777713768184185, 45.241822488605976, 47.13314492255449, 41.730258613824844, 42.01778024435043, 39.079755544662476, 40.03101959824562, 45.966871082782745, 40.342578664422035, 44.60061714053154, 48.13691880553961, 43.60952600836754, 44.96187996119261, 42.018827982246876, 44.61500607430935, 39.879098534584045, 38.90434838831425, 44.62629649788141, 39.114195853471756, 44.64591760188341, 39.125220850110054, 40.25640431791544, 38.91509119421244, 45.58565840125084, 40.30668269842863, 38.94987981766462, 44.44445297122002, 44.240365736186504, 42.18573775142431, 42.65695717185736, 38.8190932571888, 38.32362778484821, 45.455087907612324, 52.09212377667427, 51.30171775817871, 45.06864584982395, 52.16045957058668, 53.0897444114089, 53.523775190114975, 50.782050006091595, 62.38120328634977, 57.590424083173275, 62.88697570562363, 58.28097462654114, 52.740175276994705, 47.143639996647835, 50.62036029994488, 42.306057177484035, 47.88442421704531, 42.68604889512062, 50.764779560267925, 45.945560559630394, 51.0603878647089, 45.68937513977289, 40.329763665795326, 44.38918083906174, 38.3816109970212, 44.42621022462845, 46.20583914220333, 40.42807035148144, 51.386719569563866, 53.049673326313496, 54.88608963787556, 53.15149296075106, 57.13262781500816, 51.03769712150097, 45.99040932953358, 50.48361886292696, 53.007135167717934, 47.74911981076002, 53.073049522936344, 46.97277955710888, 47.24282864481211, 46.88458237797022, 51.28202587366104, 46.014389023184776, 51.202038303017616, 46.56381346285343, 44.73650082945824, 52.49433219432831, 51.219276152551174, 47.67602030187845, 44.51946169137955, 45.40457297116518, 39.646501652896404, 39.63934164494276, 39.80540297925472, 39.14593067020178, 41.56248737126589, 40.76388571411371, 48.89908153563738, 51.57498363405466, 62.83566355705261, 57.77978338301182, 63.46967630088329, 64.00641426444054, 59.11107733845711, 53.377010859549046, 56.92510586231947, 51.68343614786863, 51.419452764093876, 48.96136652678251, 43.392797000706196, 42.8433446213603, 45.88431492447853, 43.917580507695675, 44.51536573469639, 41.19440261274576, 38.496220484375954, 39.382101967930794, 39.056457579135895, 47.26303741335869, 45.02192325890064, 45.79161014407873, 45.92097923159599, 41.69395845383406, 45.23423966020346, 40.6523859128356, 39.03517313301563, 39.621773175895214, 40.29991012066603, 52.568791434168816, 47.025393694639206, 50.66268239170313, 45.98436690866947, 45.733136124908924, 43.92718430608511, 44.25997752696276, 44.28862128406763, 46.255284920334816, 44.45032775402069, 45.05903832614422, 40.42788129299879, 41.68888367712498, 40.43887462466955, 39.557636715471745, 38.826582953333855, 38.73861115425825, 43.744553811848164, 41.15277621895075, 48.3890175819397, 43.92292443662882, 47.36265540122986, 42.1002060174942, 45.287334360182285, 51.13841965794563, 45.76669726520777, 46.60731554031372, 45.2315229922533, 45.514061115682125, 44.276402331888676, 41.884521022439, 41.13597050309181, 39.47747498750687, 37.69699763506651, 40.66490102559328, 51.878612488508224, 47.4476208910346, 51.23772285878658, 46.02395556867123, 45.1049730181694, 41.59846622496843, 45.39927560836077, 51.30382161587477, 45.72466108947992, 47.8760302066803, 42.95036289840937, 43.9473707228899, 38.8442799448967, 40.38655944168568, 39.302497170865536, 40.0855029001832, 44.470641762018204, 40.43171647936106, 39.8305207490921, 39.75077997893095, 39.161733351647854, 39.532327093183994, 38.592977449297905, 39.175487123429775, 44.49809808284044, 39.27938174456358, 44.60391029715538, 40.56347534060478, 46.23827897012234, 46.09775822609663, 56.37334939092398, 52.67634801566601, 47.298453748226166, 44.29577197879553, 41.79672431200743, 40.41615594178438, 44.99186482280493, 44.371623545885086, 39.75889924913645, 39.78476207703352, 41.847740299999714, 44.230952858924866, 41.58423840999603, 44.07164454460144, 45.24925258010626, 39.112367667257786, 38.75173348933458, 43.98639500141144, 47.1079470589757, 45.26735097169876, 48.167129047214985, 52.17965040355921, 58.23257751762867, 52.85857804119587, 69.19355131685734, 78.31283751875162, 74.97068680822849, 187.6898007467389, 182.3864346370101, 177.82999016344547, 171.8608597293496, 168.36864594370127, 157.08771999925375, 180.74058182537556, 174.50869362801313, 169.55503914505243, 186.42588146030903, 180.7835903018713, 175.56948587298393, 169.84657384455204, 165.26629216969013, 159.2953959479928, 154.20122165232897, 149.03689920902252, 142.7104938775301, 137.2533580288291, 131.39435183256865, 126.2130131945014, 120.50505168735981, 114.78860396891832, 109.09714084118605, 103.41032221913338, 59.77253708988428, 108.62902365624905, 105.21300416439772, 99.3876252323389, 93.68058852851391, 87.86400966346264, 82.38652627915144, 75.24666469544172, 71.3736955076456, 68.4189647436142, 63.92829120159149, 57.703398168087006, 51.9457571208477, 46.00585624575615, 45.236339792609215, 54.45937067270279, 62.36179172992706, 62.902726233005524, 63.79436329007149, 63.512204214930534, 58.30143578350544, 52.73131933063269, 51.63773335516453, 51.038989797234535, 52.956934086978436, 47.43358492851257, 46.68290447443724, 44.891271740198135, 44.381000101566315, 39.2709719017148, 39.37172889709473, 49.68563001602888, 48.45217987895012, 50.596870481967926, 50.515081733465195, 45.49914784729481, 40.22484552115202, 39.576550014317036, 39.02971837669611, 39.32369966059923, 41.13258421421051, 46.55582923442125, 53.261151537299156, 51.889305002987385, 46.48550879210234, 48.06855507194996, 42.05236304551363, 50.708902068436146, 44.999200</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mu (qps)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t># requests</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Latency Constraint (ms)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Planner</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Estimated Latency (ms)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ingest mu Observed (qps)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Throughput (qps)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>p95 (ms)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>p99 (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VanillaInferline</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>92.595240672429</v>
+      </c>
+      <c r="H2" t="n">
+        <v>53</v>
+      </c>
+      <c r="I2" t="n">
+        <v>93</v>
+      </c>
+      <c r="J2" t="n">
+        <v>163.6796208339507</v>
+      </c>
+      <c r="K2" t="n">
+        <v>38.43246492398364</v>
+      </c>
+      <c r="L2" t="n">
+        <v>818.8425143249333</v>
+      </c>
+      <c r="M2" t="n">
+        <v>852.5392611138523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mu (qps)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t># requests</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Latency Constraint (ms)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Planner</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Estimated Latency (ms)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Latency (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VanillaInferline</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>92.595240672429</v>
+      </c>
+      <c r="H2" t="n">
+        <v>53</v>
+      </c>
+      <c r="I2" t="n">
+        <v>93</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[105.18231615424156, 68.28512251377106, 68.52242164313793, 67.72834900766611, 101.48493852466345, 106.08405619859695, 130.2020289003849, 129.75947093218565, 127.52751354128122, 170.68236507475376, 172.8332443162799, 188.22729494422674, 231.42848070710897, 226.6771774739027, 220.4190269112587, 182.69166350364685, 177.4187320843339, 252.57839914411306, 247.16191738843918, 241.53307173401117, 235.88749300688505, 224.0752223879099, 218.94014906138182, 213.16500194370747, 208.3199815824628, 194.02986485511065, 188.09601478278637, 185.79339236021042, 182.21156764775515, 246.54936231672764, 245.86861114948988, 261.91150676459074, 290.21624103188515, 285.5491731315851, 279.667885042727, 273.66919722408056, 250.63549261540174, 306.3647085800767, 300.3951981663704, 295.28108332306147, 290.41645396500826, 284.7688104957342, 278.4040616825223, 275.8916635066271, 255.41728176176548, 248.94369393587112, 248.22197388857603, 242.9204937070608, 236.39302607625723, 231.93482123315334, 317.94623006135225, 306.41486775130033, 303.52255795150995, 298.18452801555395, 292.36912447959185, 284.8801966756582, 281.8186115473509, 275.9333262220025, 229.14928756654263, 266.97149220854044, 261.4795146510005, 255.57855609804392, 249.8739454895258, 244.35666855424643, 239.17839024215937, 194.1435756161809, 189.07009903341532, 183.5283236578107, 272.29599840939045, 266.7676256969571, 260.66953502595425, 255.51981572061777, 249.89519827067852, 248.0573309585452, 242.78729036450386, 236.5219360217452, 212.42214273661375, 206.70068357139826, 199.8410066589713, 229.36014272272587, 224.508136510849, 218.95378548651934, 216.57597087323666, 213.99570535868406, 253.2962067052722, 247.95557837933302, 241.7867612093687, 241.1057511344552, 235.55088322609663, 260.4892998933792, 248.63477516919374, 243.42193268239498, 238.10605891048908, 232.95495472848415, 229.24120351672173, 222.79421892017126, 218.06129813194275, 213.9934655278921, 208.29331409186125, 201.7060136422515, 195.8491438999772, 190.31689036637545, 157.0721846073866, 152.32047252357006, 148.067157715559, 142.369762994349, 208.4196638315916, 207.3209248483181, 201.74629427492619, 195.0349397957325, 190.70375990122557, 184.97508484870195, 178.59677225351334, 173.19687455892563, 112.30231821537018, 106.66622780263424, 101.34232975542545, 96.39428649097681, 90.62170516699553, 84.37954820692539, 164.65629171580076, 161.42753325402737, 155.72225023061037, 150.79821459949017, 145.11126838624477, 139.08195681869984, 133.0177504569292, 127.2787107154727, 90.36312345415354, 87.09272928535938, 81.72985166311264, 75.35772118717432, 68.96757241338491, 65.59962872415781, 66.41887035220861, 62.25256621837616, 59.690448455512524, 54.0794562548399, 51.57917086035013, 56.89874477684498, 51.983640529215336, 45.29039282351732, 50.252276472747326, 44.24610175192356, 47.619699500501156, 41.69582296162844, 47.02308867126703, 51.64784938097, 47.400579787790775, 51.315050572156906, 45.78407295048237, 48.95811062306166, 45.178950764238834, 40.178049355745316, 45.184909366071224, 63.348814845085144, 74.65201802551746, 69.31610312312841, 64.03051968663931, 68.10238119214773, 63.74268140643835, 57.430499233305454, 52.88475099951029, 59.441582299768925, 53.44113148748875, 49.140939489006996, 56.849163956940174, 51.2962881475687, 50.51478836685419, 46.72267381101847, 50.96487794071436, 45.56879308074713, 46.558369882404804, 42.5010621547699, 44.37426570802927, 51.104478538036346, 57.397627271711826, 51.962980069220066, 57.89422895759344, 52.69749090075493, 53.06268483400345, 50.67952908575535, 44.939227402210236, 47.327480278909206, 45.92614062130451, 52.644538693130016, 50.894878804683685, 45.235930010676384, 47.16367740184069, 53.358299657702446, 50.37666205316782, 45.58435641229153, 47.44542855769396, 44.65945530682802, 47.41461854428053, 44.313554652035236, 45.13688385486603, 39.561234414577484, 42.16965474188328, 44.8439521715045, 50.83478521555662, 51.55069287866354, 50.81324279308319, 45.38567643612623, 44.44704484194517, 41.09965264797211, 40.30445031821728, 40.37838988006115, 40.57736787945032, 44.92567107081413, 41.687872260808945, 41.78174212574959, 50.42719654738903, 45.2169394120574, 51.665022037923336, 45.22598069161177, 46.70222010463476, 45.27211654931307, 44.71450299024582, 44.53203082084656, 41.226194240152836, 41.32607579231262, 45.29332183301449, 53.164041601121426, 50.23796018213034, 50.50668492913246, 48.08503482490778, 47.92600031942129, 45.23937404155731, 47.76509199291468, 42.2119926661253, 44.252121821045876, 45.37767078727484, 39.88777659833431, 39.08243216574192, 44.30833552032709, 52.19605006277561, 46.29555158317089, 50.9793721139431, 44.408632442355156, 46.68521787971258, 41.7872192338109, 45.36467790603638, 41.23773332685232, 45.04400212317705, 40.90627655386925, 47.62952122837305, 42.85462014377117, 71.6753639280796, 66.35216251015663, 75.82582160830498, 72.02777080237865, 53.51552367210388, 81.84852637350559, 76.04558486491442, 70.5638350918889, 65.42989052832127, 56.645129807293415, 56.81170895695686, 57.00815003365278, 58.460368774831295, 53.91168314963579, 60.145776718854904, 54.92744594812393, 49.66360982507467, 46.744235791265965, 47.06586431711912, 44.93644367903471, 44.52572204172611, 38.90139423310757, 46.33821360766888, 41.965811513364315, 43.41929033398628, 40.062262676656246, 41.95908922702074, 39.86699227243662, 38.483199663460255, 40.358129888772964, 42.27895848453045, 42.139855213463306, 44.37893629074097, 39.45957403630018, 40.30909016728401, 40.847061201930046, 38.01326919347048, 44.126744382083416, 44.57781929522753, 45.02212814986706, 44.227839447557926, 41.88868869096041, 44.625675305724144, 40.697006508708, 44.98038720339537, 44.46718469262123, 40.894364938139915, 51.68304219841957, 46.08219116926193, 51.72311794012785, 46.171785332262516, 40.25199916213751, 44.755817390978336, 39.48848694562912, 38.82261924445629, 42.74891596287489, 39.663936011493206, 44.48987636715174, 44.71480194479227, 39.761207066476345, 52.12034471333027, 47.079216688871384, 57.94238578528166, 53.720055148005486, 47.990065068006516, 52.67131794244051, 50.71955733001232, 51.824348978698254, 50.510005094110966, 50.82990322262049, 47.21399024128914, 50.69040693342686, 45.13033386319876, 45.25419231504202, 41.30018875002861, 41.78297333419323, 40.892185643315315, 41.50887578725815, 45.14815378934145, 40.54143559187651, 41.60512238740921, 47.15577233582735, 52.225696854293346, 47.22478147596121, 51.73462349921465, 46.979956328868866, 44.549115002155304, 54.37006242573261, 46.60930950194597, 51.93651095032692, 62.7975445240736, 63.54029942303896, 62.75595910847187, 56.61895405501127, 51.448509097099304, 70.60690596699715, 64.98315837234259, 54.73458953201771, 49.41448476165533, 50.78786425292492, 45.239404775202274, 50.5127664655447, 50.593613646924496, 51.08119547367096, 45.69387715309858, 41.12350940704346, 42.8954791277647, 41.72724857926369, 39.63468875735998, 45.266554690897465, 51.7180934548378, 44.297004118561745, 44.4800378754735, 44.668231159448624, 42.138331569731236, 42.870973236858845, 39.83363974839449, 38.17532304674387, 40.67202750593424, 39.70648720860481, 44.81527581810951, 45.997072011232376, 40.27761984616518, 44.81436125934124, 41.1808080971241, 45.21646536886692, 40.38118477910757, 44.266415759921074, 45.765372924506664, 44.471776112914085, 44.744523242115974, 44.64283585548401, 43.74280758202076, 40.07831681519747, 39.83231075108051, 41.15884192287922, 44.61663216352463, 39.1042809933424, 39.65430520474911, 44.65479124337435, 51.33627541363239, 51.34469550102949, 46.05462960898876, 46.67444806545973, 42.65878442674875, 46.24621570110321, 42.64132026582956, 50.72545353323221, 45.3002592548728, 45.78158352524042, 41.58735368400812, 44.26148161292076, 140.43277222663164, 134.05235204845667, 129.9058310687542, 124.45677630603313, 137.84308545291424, 132.14126508682966, 138.0640882998705, 65.92022906988859, 69.54809371381998, 76.51213742792606, 127.6479922235012, 127.8651999309659, 158.11440162360668, 158.31647627055645, 155.19758127629757, 155.38669005036354, 159.1122467070818, 226.0453188791871, 226.72052215784788, 265.0095568969846, 269.0081372857094, 270.24628408253193, 272.5547971203923, 272.6532081142068, 302.44648829102516, 332.60483015328646, 328.49827595055103, 323.28720949590206, 320.3764660283923, 329.3673116713762, 373.3295314013958, 364.4378036260605, 359.17477775365114, 353.4782947972417, 346.82848677039146, 345.2477063983679, 402.06746757030487, 395.58741450309753, 390.2210844680667, 384.6766585484147, 393.5726750642061, 388.6674512177706, 382.57483672350645, 376.57611910253763, 370.1992277055979, 364.36733044683933, 358.3624614402652, 352.46209241449833, 346.40908148139715, 342.80154947191477, 376.43882632255554, 371.589501388371, 367.0514477416873, 362.8350794315338, 357.49721620231867, 347.2550353035331, 404.2355930432677, 393.0622339248657, 387.6848891377449, 383.98453779518604, 430.90534303337336, 430.9748616069555, 425.6254732608795, 419.4514090195298, 413.85747864842415, 408.4244780242443, 405.51487170159817, 441.86605513095856, 436.90437637269497, 432.0624517276883, 426.39232985675335, 420.41737865656614, 416.0721627995372, 410.22901609539986, 411.13230399787426, 405.27692064642906, 418.7174951657653, 397.18909095972776, 403.9686359465122, 408.9523842558265, 405.22450115531683, 401.4248074963689, 398.6413674429059, 424.9675152823329, 442.2638136893511, 444.97949071228504, 449.014806188643, 443.8395882025361, 442.43699591606855, 358.22124779224396, 437.8218185156584, 362.3538548126817, 448.48637003451586, 372.07256257534027, 382.4940714985132, 380.31826820224524, 379.02107276022434, 395.08336316794157, 399.39468912780285, 405.22303991019726, 432.6592553406954, 442.08499789237976, 445.25926746428013, 447.11896125227213, 473.8017152994871, 473.00595976412296, 468.8273975625634, 466.0682752728462, 460.4368610307574, 499.23359975218773, 493.22808627039194, 490.1718785986304, 485.854665748775, 480.6428970769048, 462.7340519800782, 464.63613864034414, 522.6388303562999, 514.0638677403331, 505.86371310055256, 502.5901524350047, 498.0647135525942, 492.597833275795, 487.1765589341521, 481.23627062886953, 467.2859311103821, 516.9523088261485, 510.74523385614157, 505.2708266302943, 499.87694527953863, 496.8196311965585, 492.028777487576, 485.43700110167265, 480.18200136721134, 492.931742221117, 488.6342538520694, 485.00513471663, 479.8648739233613, 474.25265703350306, 463.9414260163903, 513.315306045115, 499.1154121235013, 488.0413580685854, 488.6152623221278, 522.3305560648441, 518.2547541335225, 513.0320843309164, 506.58366177231073, 502.1162973716855, 499.3261508643627, 493.5858780518174, 481.9838320836425, 488.53075969964266, 521.5773684903979, 516.0417715087533, 512.3413065448403, 502.88826134055853, 497.81507439911366, 490.93635380268097, 510.79424005001783, 527.4929264560342, 521.8215212225914, 510.92841755598783, 506.4068678766489, 521.2186202406883, 503.7844656035304, 529.5622181147337, 524.0250313654542, 527.5647947564721, 551.4065437018871, 547.0127016305923, 536.2893231213093, 564.1597742214799, 558.5453202947974, 552.470582537353, 548.2542822137475, 544.936241582036, 538.6645086109638, 615.3600309044123, 610.1448740810156, 607.871844433248, 602.189858444035, 600.7287194952369, 610.710758715868, 655.1654562354088, 652.6787169277668, 647.3427377641201, 641.8658457696438, 636.4346034824848, 632.5159948319197, 627.138483338058, 646.3743345811963, 641.7368706315756, 638.9246825128794, 633.5455942898989, 621.730599552393, 665.0157226249576, 655.9098828583956, 650.4894467070699, 639.4967278465629, 699.778163805604, 688.334159553051, 682.9586466774344, 677.6427263393998, 674.0051750093699, 710.7668220996857, 705.4546624422073, 700.5144180729985, 696.7551782727242, 730.9102676808834, 725.7933132350445, 723.667667247355, 718.6481636017561, 712.1966378763318, 700.1455212011933, 749.9732375144958, 743.9533406868577, 739.0246763825417, 733.8205557316542, 728.7696525454521, 722.9020781815052, 716.581055894494, 693.79020947963, 749.5116582140326, 744.5548586547375, 738.8857090845704, 733.6177593097091, 729.5418092980981, 745.2045818790793, 733.2273963838816, 726.9888808950782, 726.0785959661007, 721.5014966204762, 715.3908545151353, 709.4191117212176, 704.2718809098005, 698.5278846696019, 694.7938045486808, 714.4175488501787, 712.1370518580079, 707.328231073916, 702.3107642307878, 726.5692874789238, 724.3104465305805, 719.0388068556786, 714.081228710711, 711.5259664133191, 731.021098792553, 726.1389140039682, 721.0201900452375, 718.3530563488603, 713.8744564726949, 754.6634720638394, 743.9032522961497, 738.7457648292184, 733.8083954527974, 754.6828296035528, 731.3749771565199, 754.0678959339857, 749.3934174999595, 743.8284773379564, 741.0237807780504, 721.4621501043439, 716.5049286559224, 713.2550524547696, 775.7174912840128, 770.8742124959826, 765.6093537807465, 760.2124661207199, 756.3686277717352, 750.7903538644314, 744.2711917683482, 738.6276181787252, 749.84663259238, 744.8964910581708, 741.1659918725491, 736.0043618828058, 718.4341130778193, 760.6526454910636, 755.2277455106378, 744.6551788598299, 742.0919761061668, 767.1579802408814, 761.0918479040265, 756.8268580362201, 753.9188032969832, 749.137882143259, 771.2481897324324, 767.4861000850797, 760.0899981334805, 758.2012405619025, 792.6224106922746, 789.7206051275134, 786.8746388703585, 780.6587507948279, 775.4565086215734, 798.1547052040696, 792.2832388430834, 788.0672095343471, 799.3358448147774, 804.6548347920179, 799.9354237690568, 797.4807312712073, 812.9109386354685, 810.8468726277351, 805.8681068941951, 800.0571168959141, 793.8740532845259, 790.5848259106278, 785.2692268788815, 780.3923469036818, 743.844011798501, 810.1607598364353, 805.3179159760475, 798.7065203487873, 796.3815601542592, 792.275495827198, 785.9650952741504, 780.3864935413003, 768.7454270198941, 760.3923324495554, 797.5628972053528, 786.1847644671798, 781.0450056567788, 775.0685904175043, 772.1214843913913, 803.3655127510428, 798.1011578813195, 793.6412058770657, 791.3267053663731, 779.263149946928, 818.8005555421114, 806.4551055431366, 804.4810108840466, 786.7428613826632, 789.5676083862782, 788.51009439677, 814.0841666609049, 817.1273497864604, 813.2543573155999, 808.4928644821048, 799.7794775292277, 837.7080159261823, 826.1900460347533, 822.3041063174605, 818.0009266361594, 813.1106728687882, 807.2663815692067, 801.0394340381026, 793.1604152545333, 787.6805160194635, 784.9659435451031, 781.7876050248742, 775.9935362264514, 803.4360287711024, 798.2739936560392, 793.4085512533784, 787.9395121708512, 783.1448717042804, 780.4582389071584, 775.1152263954282, 768.6645677313209, 791.663957759738, 786.9958626106381, 781.7363766953349, 776.2974817305803, 803.5685820505023, 798.7874057143927, 797.5340029224753, 792.0836452394724, 786.9892632588744, 809.9451949819922, 804.6629820019007, 799.8692989349365, 790.1312597095966, 791.2638625130057, 834.340613335371, 824.7128957882524, 821.786274202168, 815.8209351822734, 810.4266077280045, 804.6502135694027, 829.9241131171584, 827.9664283618331, 822.5701302289963, 816.1623012274504, 794.1980948671699, 846.8467500060797, 841.417646035552, 834.7272174432874, 831.5458884462714, 827.9983988031745, 823.1803327798843, 817.3703411594033, 811.2024469301105, 832.9654801636934, 830.1716325804591, 825.9439459070563, 814.0096124261618, 823.5891768708825, 811.0702373087406, 800.1908184960485, 805.9660773724318, 828.7550313398242, 823.1191728264093, 817.1275891363621, 812.5248849391937, 809.2360198497772, 834.9288692697883, 830.127683468163, 824.8227350413799, 819.2201433703303, 813.2154559716582, 810.286452062428, 840.9212343394756, 835.4738028720021, 830.1147203892469, 828.9221180602908, 810.8122944831848, 853.3747736364603, 848.4941339120269, 838.7133199721575, 834.6438901498914, 829.1082577779889, 806.4678329974413, 804.6028148382902, 864.5946588367224, 859.260399825871, 852.2322392091155, 849.2757910862565, 846.2995057925582, 840.4882419854403, 834.9212324246764, 828.8298333063722, 816.5464149788022, 842.0499349012971, 838.1020911037922, 833.1000385805964, 829.0759678930044, 849.8737309128046, 847.6102268323302, 842.1693006530404, 835.810124874115, 870.3133640810847, 865.5220940709114, 860.6217568740249, 858.8520288467407, 852.7648458257318, 882.918712683022, 877.3387670516968, 872.5416529923677, 867.7745442837477, 864.9069657549262, 846.7078758403659, 890.1884164661169, 885.1248603314161, 873.2008654624224, 868.4370508417487, 863.8246897608042, 858.5105426609516, 856.5234271809459, 852.5346573442221, 840.6015075743198, 847.6243084296584, 834.5371428877115, 830.4413678124547, 824.8957088217139, 819.5138862356544, 835.8717951923609, 833.5688356310129, 828.2543560490012, 824.3770794942975, 804.277578368783, 850.6188932806253, 847.9898003861308, 842.5391335040331, 838.8096923008561, 832.9434143379331, 827.9095971956849, 849.5827130973339, 846.6732986271381, 841.9651901349425, 836.9388394057751, 830.5774517357349, 827.5663163512945, 822.462597861886, 816.3992175832391, 811.3732468336821, 806.4669938758016, 801.4816697686911, 827.9072977602482, 824.3457088246942, 821.1304554715753, 815.9216325730085, 811.6315333172679, 808.3522757515311, 844.6194678544998, 839.5752180367708, 834.8549818620086, 829.9554688856006, 824.4281308725476, 818.7803728505969, 812.456882558763, 809.1704118996859, 804.7927571460605, 793.343492783606, 799.9198464676738, 788.2220391184092, 782.6672689989209, 778.5274488851428, 772.9206653311849, 768.2557487860322, 762.5895403325558, 743.3873051777482, 790.8311486244202, 785.2105591446161, 780.1840426400304, 774.99417681247, 772.8211954236031, 762.2780315577984, 756.739859469235, 750.6097974255681, 738.6226896196604, 732.6016956940293, 746.5006355196238, 723.368477076292, 731.1649862676859, 699.5841935276985, 756.5309107303619, 752.8527081012726, 748.465427197516, 742.652390152216, 736.5881158038974, 731.1477875337005, 726.4854637905955, 748.3864678069949, 736.3375257700682, 730.7826904579997, 725.3215797245502, 720.1220225542784, 717.9234409704804, 712.4862559139729, 706.1133412644267, 700.5509687587619, 694.991696625948, 688.1404016166925, 684.3373691663146, 681.0376448556781, 704.5867051929235, 699.3119297549129, 691.8112244457006, 688.4797010570765, 686.039736494422, 681.4537728205323, 675.882495008409, 669.4416739046574, 664.2491025850177, 659.2211704701185, 653.9109153673053, 650.1877978444099, 644.7351658716798, 639.0805412083864, 633.158122189343, 626.6150334849954, 649.0938132628798, 644.1135406494141, 639.2587777227163, 634.4532687216997, 631.1239032074809, 625.8449796587229, 619.9755948036909, 614.9159865453839, 609.2354375869036, 604.9831286072731, 600.9247526526451, 595.7113690674305, 588.8900933787227, 583.460814319551, 577.2106517106295, 587.7843573689461, 582.182914018631, 576.6310272738338, 570.5714803189039, 569.8012774810195, 564.2293747514486, 559.6267255023122, 554.3617811053991, 551.0735679417849, 545.3619230538607, 539.8457488045096, 535.5746662244201, 530.3360288962722, 525.1728594303131, 521.219459362328, 515.949790365994, 520.9844093769789, 513.1185883656144, 509.5468070358038, 504.6664187684655, 498.841879889369, 497.62557819485664, 492.5200939178467, 489.8002464324236, 484.7587952390313, 479.329701513052, 473.9588163793087, 469.32504139840603, 465.8080516383052, 460.3964872658253, 454.37729358673096, 448.6633613705635, 452.51049008220434, 448.4133077785373, 443.62174440175295, 438.0950275808573, 431.9507833570242, 428.7817869335413, 426.3515016064048, 420.2571976929903, 417.15734265744686, 411.741160787642, 407.7102867886424, 402.12924033403397, 398.0553438887, 392.4430003389716, 386.3289672881365, 380.3138481453061, 380.05626667290926, 374.82653744518757, 369.4634260609746, 363.5889766737819, 357.95704275369644, 351.9608089700341, 346.9306016340852, 341.7524825781584, 350.6954573094845, 345.4022826626897, 342.0050544664264, 339.19711224734783, 333.00712797790766, 331.02568332105875, 325.7347056642175, 320.9947282448411, 314.6308930590749, 307.9806733876467, 304.9268452450633, 299.66956097632647, 293.30593906342983, 287.9490489140153, 281.4346868544817, 276.44319646060467, 284.2309083789587, 278.44325359910727, 278.1768664717674, 272.308218292892, 266.77480060607195, 261.1300554126501, 257.9885143786669, 251.964146271348, 248.34340251982212, 242.436564527452, 235.69207917898893, 230.30657414346933, 224.45062082260847, 218.85062381625175, 212.30684407055378, 208.10847636312246, 221.56389523297548, 215.53435176610947, 209.5430614426732, 206.03400375694036, 203.36635503917933, 197.0572303980589, 192.91097111999989, 187.2788378968835, 181.98614101856947, 176.47783178836107, 170.46063765883446, 163.32178842276335, 158.87262765318155, 153.08039914816618, 147.244431078434, 141.65569376200438, 138.67825083434582, 134.17121302336454, 128.50016169250011, 124.79126267135143, 118.90179384499788, 113.83357085287571, 108.83756075054407, 101.95925459265709, 98.04865997284651, 91.95473790168762, 85.22994630038738, 81.1883881688118, 72.56773021072149, 71.92553766071796, 66.17123913019896, 61.562083661556244, 55.12796621769667, 55.018492974340916, 51.37205962091684, 53.48998587578535, 47.957650385797024, 45.52431683987379, 49.39536843448877, 45.4124566167593, 47.59585298597813, 43.68390142917633, 44.085475616157055, 53.2565088942647, 62.31726240366697, 58.47279727458954, 57.205012999475, 51.96385271847248, 46.18710558861494, 46.36601638048887, 45.16413435339928, 44.425892643630505, 45.02881225198507, 40.90111143887043, 44.28644198924303, 39.488417096436024, 39.061861112713814, 41.9012475758791, 38.544537499547005, 49.96894206851721, 45.50964664667845, 47.94275760650635, 44.64366193860769, 59.86124090850353, 54.254948161542416, 53.376926109194756, 51.54454801231623, 51.15907732397318, 46.44961375743151, 50.9078623726964, 45.62592878937721, 52.02586855739355, 48.63095376640558, 62.423198483884335, 56.81550782173872, 52.53349430859089, 52.108206786215305, 46.3896868750453, 43.23697276413441, 41.70147888362408, 56.98637291789055, 51.917786709964275, 53.36220934987068, 50.69420486688614, 51.60412844270468, 46.28593474626541, 40.651517920196056, 41.16061516106129, 44.980363920331, 40.28566554188728, 56.2461307272315, 63.90561908483505, 58.42217709869146, 70.31978573650122, 64.33779466897249, 58.70184861123562, 57.35467933118343, 57.79430828988552, 52.412199787795544, 52.498203702270985, 52.00691893696785, 46.68314754962921, 45.21096404641867, 40.72975646704435, 40.87810590863228, 40.101826190948486, 45.729998499155045, 50.26237852871418, 50.2632986754179, 45.8266856148839, 51.01246014237404, 45.44464498758316, 47.89686668664217, 43.93534082919359, 44.284491799771786, 40.59060197323561, 44.65383477509022, 51.447268575429916, 50.70198327302933, 45.524340122938156, 43.89695543795824, 40.58222845196724, 44.24034617841244, 39.93389941751957, 40.4432313516736, 39.09030929207802, 44.740406796336174, 41.68227408081293, 45.789276249706745, 45.30019126832485, 51.756856963038445, 51.60182248800993, 45.96110247075558, 47.38397151231766, 41.61591734737158, 45.618402771651745, 46.71637341380119, 43.92113443464041, 45.88758107274771, 39.692807011306286, 44.20196358114481, 44.706945307552814, 41.95841494947672, 41.158108972013, 41.2388676777482, 38.95646892488003, 40.27948994189501, 39.19114172458649, 39.133746176958084, 39.93223235011101, 38.7937193736434, 39.64596334844828, 40.54764937609434, 39.083258248865604, 39.899129420518875, 44.285692274570465, 44.53470837324858, 39.69118092209101, 44.94366701692343, 39.34288024902344, 39.173622615635395, 45.21974641829729, 39.219931699335575, 40.92881642282009, 46.57188709825277, 42.815917171537876, 43.68045553565025, 45.951686799526215, 45.033274218440056, 46.17035388946533, 44.52153854072094, 50.811429508030415, 49.546003341674805, 45.17206642776728, 46.02491203695536, 41.19913838803768, 45.289479196071625, 40.32512288540602, 41.44281800836325, 38.59091643244028, 45.20008899271488, 46.07629403471947, 51.43810994923115, 45.309923589229584, 53.01810521632433, 47.41001781076193, 54.015807807445526, 50.097485072910786, 52.769034169614315, 47.412519343197346, 44.7713490575552, 44.69944816082716, 45.42670305818319, 39.5765695720911, 42.51077584922314, 39.180890657007694, 38.23472559452057, 44.6564257144928, 39.37704861164093, 39.54228665679693, 38.35738170892, 37.588095292449, 47.53440152853727, 57.257942855358124, 57.69252311438322, 53.79191879183054, 54.167257621884346, 48.470101319253445, 48.86453039944172, 45.6909378990531, 46.254984103143215, 51.024675369262695, 46.05864826589823, 49.95459131896496, 45.751821249723434, 46.326189301908016, 40.877980180084705, 44.8605353012681, 40.849181823432446, 39.53355923295021, 39.44915160536766, 40.44745024293661, 39.67337403446436, 39.93983566761017, 39.4265353679657, 45.29867880046368, 44.05588377267122, 51.82064697146416, 46.37927934527397, 51.02963373064995, 51.34298466145992, 43.771703727543354, 53.24581544846296, 62.84249108284712, 57.120781391859055, 63.301810063421726, 58.28418768942356, 58.43201931566, 53.03015559911728, 64.6663997322321, 57.646578177809715, 52.22904961556196, 50.368587486445904, 46.76654376089573, 50.632123835384846, 45.15397269278765, 47.919600270688534, 47.1845343708992, 45.126753859221935, 45.845504850149155, 44.67981029301882, 41.99701640754938, 40.54592922329903, 45.222729444503784, 47.15514648705721, 57.95304197818041, 52.64056473970413, 58.93766414374113, 53.19818947464228, 52.150050178170204, 50.58896727859974, 45.10838072746992, 50.71776174008846, 48.48932661116123, 50.099512562155724, 45.077577233314514, 50.48191826790571, 47.301710583269596, 47.88828827440739, 44.60393637418747, 44.99011021107435, 57.71540105342865, 64.6840799599886, 66.31672102957964, 65.67460764199495, 71.85448985546827, 66.28531217575073, 60.78051682561636, 55.56655768305063, 45.177084393799305, 63.458957709372044, 58.23866371065378, 52.0117050036788, 46.51304334402084, 44.28862500935793, 45.416079461574554, 41.68770741671324, 42.729645036160946, 44.5818742737174, 39.50256668031216, 40.55431857705116, 46.3835010305047, 44.81566324830055, 44.822925701737404, 44.46253087371588, 45.563504099845886, 50.74636545032263, 45.27362156659365, 50.5126528441906, 46.26174457371235, 50.76659098267555, 45.09132727980614, 50.15418864786625, 45.56241724640131, 47.48521465808153, 44.36038341373205, 44.69026532024145, 44.68254745006561, 41.13504849374294, 39.83580879867077, 39.230698719620705, 40.75066838413477, 38.85138500481844, 41.67951084673405, 45.9103574976325, 52.58907005190849, 51.68261844664812, 46.26749828457832, 51.13906227052212, 47.1455380320549, 47.508214600384235, 47.983840107917786, 50.57267937809229, 50.48060975968838, 45.63325457274914, 40.01063387840986, 39.23405520617962, 46.08004912734032, 52.751886658370495, 51.64188705384731, 46.8427948653698, 46.79418634623289, 56.98284041136503, 50.919706001877785, 45.194363221526146, 46.24512791633606, 41.18500370532274, 45.47008220106363, 40.31949117779732, 41.31529852747917, 39.07155152410269, 41.30844585597515, 43.85875817388296, 44.51563023030758, 46.83372285217047, 44.47207506746054, 45.2942680567503, 44.58114691078663, 44.50287111103535, 40.3781458735466, 40.70493672043085, 44.958497397601604, 40.16227554529905, 41.876028291881084, 45.60540150851011, 52.33391746878624, 52.624281495809555, 51.953839138150215, 51.22684873640537, 45.331728644669056, 44.591677375137806, 40.48019461333752, 40.51473829895258, 39.84012268483639, 40.94105586409569, 46.578118577599525, 45.19363585859537, 44.467017985880375, 42.60838218033314, 44.49398070573807, 47.09145985543728, 41.60789866000414, 44.61386147886515, 44.503665529191494, 41.24373756349087, 44.26035284996033, 50.925591960549355, 45.55428400635719, 50.90067256242037, 45.1578376814723, 47.179567627608776, 44.69256475567818, 45.2985530719161, 40.689305402338505, 44.92179490625858, 40.591251105070114, 38.40463887900114, 41.03082790970802, 38.68955560028553, 40.02633783966303, 44.11585070192814, 41.860003024339676, 45.025006867945194, 39.319527335464954, 41.21891129761934, 45.52263766527176, 40.74165131896734, 58.81019961088896, 53.00821550190449, 53.3522879704833, 47.552911564707756, 48.2755983248353, 44.097269885241985, 45.24832312017679, 41.00064840167761, 64.19609114527702, 59.2679800465703, 68.4430506080389, 64.30677603930235, 63.08376509696245, 66.46183226257563, 61.629533767700195, 55.85296731442213, 50.36675091832876, 52.36245226114988, 46.87758721411228, 50.865679048001766, 45.4073790460825, 45.50318140536547, 46.42844200134277, 59.79865975677967, 52.37755738198757, 63.141023740172386, 57.539697736501694, 62.49954830855131, 57.09883198142052, 53.0003122985363, 56.89771380275488, 51.310088485479355, 51.17425415664911, 45.0754314661026, 48.09506516903639, 51.44258961081505, 46.13579250872135, 51.169791258871555, 46.11004516482353, 40.66911060363054, 39.353689178824425, 41.153645142912865, 39.51865900307894, 40.91894347220659, 44.171118177473545, 50.840175710618496, 45.99148314446211, 40.51643516868353, 45.178595930337906, 40.002952329814434, 45.20478751510382, 41.20907559990883, 40.60766194015741, 40.12853652238846, 44.70364563167095, 43.933321721851826, 42.29921381920576, 50.544995814561844, 45.1666247099638, 47.400156036019325, 44.22471672296524, 53.675055503845215, 48.8403532654047, 45.35048734396696, 57.922410778701305, 53.25805954635143, 51.415407098829746, 46.67054861783981, 46.469977125525475, 44.67636439949274, 44.29822601377964, 41.3895221427083, 39.31797854602337, 43.93328819423914, 47.25522827357054, 50.39225146174431, 44.88928522914648, 44.94144394993782, 39.177882485091686, 41.63676220923662, 45.36456800997257, 51.382625475525856, 45.79087533056736, 51.15419439971447, 45.6793000921607, 44.48219761252403, 39.29141070693731, 40.31850304454565, 39.54788018018007, 42.23120678216219, 40.56579526513815, 42.28977579623461, 44.91244815289974, 39.20171596109867, 39.21348135918379, 38.982330821454525, 48.96597843617201, 45.70635128766298, 48.05507976561785, 43.15720126032829, 44.9258778244257, 39.24188390374184, 39.691091515123844, 38.68179768323898, 39.06984068453312, 44.24196947365999, 37.70657628774643, 51.72441713511944, 46.598042361438274, 51.47669464349747, 46.04235477745533, 52.222706377506256, 46.583996154367924, 51.541601307690144, 47.41468466818333, 51.39155127108097, 50.668032839894295, 50.93544814735651, 45.756966806948185, 44.170817360281944, 41.67165793478489, 38.47918473184109, 38.3567875251174, 51.228780299425125, 47.35477548092604, 51.954444497823715, 46.66912369430065, 42.54229553043842, 45.33398989588022, 39.71303999423981, 40.681930258870125, 42.43303928524256, 47.909739427268505, 46.31534684449434, 45.54639384150505, 46.022539027035236, 44.53148413449526, 40.00348225235939, 43.6610896140337, 51.692014560103416, 46.447508968412876, 51.99137702584267, 51.25793442130089, 50.931104458868504, 51.8073420971632, 46.17541190236807, 40.157973766326904, 42.475723661482334, 39.53596297651529, 38.800559006631374, 45.81126477569342, 44.77099236100912, 44.682879000902176, 41.53795167803764, 44.01550069451332, 45.195383951067924, 40.08322395384312, 45.252702198922634, 47.93724603950977, 42.542465031147, 46.309880912303925, 45.29184848070145, 51.877676509320736, 46.68259248137474, 50.46544224023819, 44.62089203298092, 51.2411929666996, 45.65826430916786, 47.225537709891796, 50.32575596123934, 45.13110779225826, 48.2935793697834, 45.04484590142965, 46.245986595749855, 41.59622732549906, 48.376708291471004, 51.76345258951187, 47.29001969099045, 52.822752855718136, 48.21649193763733, 50.093081779778004, 45.797151513397694, 44.46243215352297, 40.18654301762581, 40.79767595976591, 44.89567689597607, 50.60356669127941, 44.939132407307625, 48.89286123216152, 45.97123991698027, 51.358651369810104, 45.737230218946934, 46.132965944707394, 40.61466176062822, 42.51156561076641, 45.41442170739174, 43.58660336583853, 40.68616032600403, 41.0604951903224, 45.047095976769924, 40.223078802227974, 40.362462401390076, 45.207519084215164, 44.88804563879967, 44.681886211037636, 44.60787959396839, 44.964379630982876, 41.917918249964714, 40.440124459564686, 49.63344242423773, 45.89461907744408, 48.07106405496597, 44.841901399195194, 45.5878097563982, 44.378334656357765, 44.608645141124725, 40.79832136631012, 43.53019502013922, 39.49266020208597, 39.70366716384888, 44.70514785498381, 41.64750128984451, 41.373505257070065, 38.46180625259876, 40.246257558465004, 39.12921994924545, 149.1943635046482, 169.30974461138248, 170.62050849199295, 192.6286118105054, 186.9816929101944, 180.92211242765188, 176.02799367159605, 170.52646726369858, 164.81060441583395, 162.35985979437828, 156.75542689859867, 151.08563099056482, 145.3090151771903, 139.62002657353878, 133.89035779982805, 127.57937610149384, 121.9444889575243, 116.05908628553152, 110.44290009886026, 62.49143835157156, 57.2111206</t>
         </is>
       </c>
     </row>

--- a/image_preprocessing/two_vertex/accuracy_degradation/virtual/virtual_bert24.xlsx
+++ b/image_preprocessing/two_vertex/accuracy_degradation/virtual/virtual_bert24.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Arrival Information" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Planner Configuration" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -475,12 +476,114 @@
         <v>2000</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ImprovedInferline</t>
-        </is>
+          <t>VanillaInferline</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mu (qps)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t># requests</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Latency Constraint (ms)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Planner</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>configuration</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Estimated Latency (ms)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>175</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VanillaInferline</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"bert/VClassifier": {"config": {"INPUT_INFO": {"&lt;class 'list'&gt;": ["data"]}, "OUTPUT_INFO": "&lt;class 'list'&gt;", "input_shape": null, "output_shape": null}, "ppu_state": {"Sentimental-bert24-2/tokenizer": {"num_replicas": 1, "max_batch_size": 8, "resources": {"CPU1": 1}}, "Sentimental-bert24-2/bert24_p2_stage0": {"num_replicas": 2, "max_batch_size": 8, "resources": {"Tesla P40": 1}, "num_gpus": 1}, "Sentimental-bert24-2/bert24-p2-stage1": {"num_replicas": 2, "max_batch_size": 8, "resources": {"Tesla P40": 1}, "num_gpus": 1}, "Sentimental-bert24-2/bert24-p2-stage2": {"num_replicas": 2, "max_batch_size": 8, "resources": {"Tesla P40": 1}, "num_gpus": 1}, "Sentimental-bert24-2/bert24-p2-stage3": {"num_replicas": 1, "max_batch_size": 8, "resources": {"Tesla P40": 1}, "num_gpus": 1}}, "ppu_identifier": "Sentimental-bert24-2"}}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>144.6813366413114</v>
+      </c>
+      <c r="I2" t="n">
+        <v>71</v>
+      </c>
+      <c r="J2" t="n">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/image_preprocessing/two_vertex/accuracy_degradation/virtual/virtual_bert24.xlsx
+++ b/image_preprocessing/two_vertex/accuracy_degradation/virtual/virtual_bert24.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Arrival Information" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Planner Configuration" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -475,12 +476,114 @@
         <v>2000</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ImprovedInferline</t>
-        </is>
+          <t>SimulatedAnnealing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mu (qps)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t># requests</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Latency Constraint (ms)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Planner</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>configuration</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Estimated Latency (ms)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>300</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SimulatedAnnealing</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"bert/VClassifier": {"config": {"INPUT_INFO": {"&lt;class 'list'&gt;": ["data"]}, "OUTPUT_INFO": "&lt;class 'list'&gt;", "input_shape": null, "output_shape": null}, "ppu_state": {"Sentimental-bert24-2/bert": {"num_replicas": 9, "max_batch_size": 1, "resources": {"Tesla P40": 1}, "num_gpus": 1}}, "ppu_identifier": "Sentimental-bert24-2"}}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>40.54588794709662</v>
+      </c>
+      <c r="I2" t="n">
+        <v>90</v>
+      </c>
+      <c r="J2" t="n">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
